--- a/outputs/SORs/SOR Testing_IPS Clutches & Brakes Division.xlsx
+++ b/outputs/SORs/SOR Testing_IPS Clutches & Brakes Division.xlsx
@@ -935,7 +935,7 @@
         <v>0.0435</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>0</v>
+        <v>0.0455</v>
       </c>
       <c r="M4" s="1" t="n">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -1180,7 +1180,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -1251,7 +1251,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -1620,7 +1620,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -1691,7 +1691,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1762,7 +1762,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -1783,40 +1783,40 @@
         <v>0</v>
       </c>
       <c r="L7" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M7" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N7" s="10" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O7" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P7" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R7" s="10" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S7" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T7" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U7" s="10" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V7" s="10" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W7" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2066,7 +2066,7 @@
         <v>29</v>
       </c>
       <c r="G4" s="11" t="n">
-        <v>0.0085</v>
+        <v>0.0084</v>
       </c>
       <c r="H4" s="11" t="n">
         <v>0</v>
@@ -2075,46 +2075,46 @@
         <v>0</v>
       </c>
       <c r="J4" s="11" t="n">
-        <v>0.009</v>
+        <v>0.0089</v>
       </c>
       <c r="K4" s="11" t="n">
-        <v>0.0094</v>
+        <v>0.0093</v>
       </c>
       <c r="L4" s="11" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="11" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="11" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="11" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="11" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="11" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="11" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="11" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="11" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2245,7 +2245,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="11" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2316,7 +2316,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="11" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -2387,7 +2387,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -2866,7 +2866,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="12" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2937,7 +2937,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="12" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -3008,7 +3008,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="12" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="14" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="M4" s="14" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="14" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -3718,7 +3718,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="14" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -3789,7 +3789,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -3806,40 +3806,40 @@
         <v>1</v>
       </c>
       <c r="L7" s="14" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="N7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="O7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="P7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="Q7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="R7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="S7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="T7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="U7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="V7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="W7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -3856,7 +3856,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3927,7 +3927,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3998,7 +3998,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="18" t="n">
-        <v>0</v>
+        <v>0.0217</v>
       </c>
       <c r="M4" s="18" t="n">
         <v>0</v>
@@ -5489,7 +5489,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="18" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -5560,7 +5560,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="18" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -5631,7 +5631,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="18" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -5652,40 +5652,40 @@
         <v>0</v>
       </c>
       <c r="L9" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M9" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N9" s="18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O9" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P9" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R9" s="18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S9" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T9" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U9" s="18" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V9" s="18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W9" s="18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6346,13 +6346,13 @@
         <v>0</v>
       </c>
       <c r="H4" s="2" t="n">
+        <v>0.0175</v>
+      </c>
+      <c r="I4" s="2" t="n">
         <v>0.0179</v>
       </c>
-      <c r="I4" s="2" t="n">
-        <v>0.0182</v>
-      </c>
       <c r="J4" s="2" t="n">
-        <v>0.0357</v>
+        <v>0.0351</v>
       </c>
       <c r="K4" s="2" t="n">
         <v>0</v>
@@ -6408,7 +6408,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -6471,7 +6471,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -6542,7 +6542,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -6557,40 +6557,40 @@
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>1</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -6607,7 +6607,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -6678,7 +6678,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -6749,7 +6749,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -7065,7 +7065,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="20" t="n">
-        <v>0.0588</v>
+        <v>0.0571</v>
       </c>
       <c r="L4" s="20" t="n">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="20" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -7177,7 +7177,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="20" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -7248,7 +7248,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="20" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -7265,40 +7265,40 @@
         <v>0</v>
       </c>
       <c r="L7" s="20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="20" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="N7" s="20" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O7" s="20" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="P7" s="20" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="Q7" s="20" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="R7" s="20" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="S7" s="20" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="T7" s="20" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="U7" s="20" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="V7" s="20" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="W7" s="20" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8">
@@ -7315,7 +7315,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="20" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -7386,7 +7386,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="20" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -7457,7 +7457,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="20" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -7477,9 +7477,7 @@
       <c r="K10" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="L10" s="20" t="n">
-        <v>0</v>
-      </c>
+      <c r="L10" s="20"/>
       <c r="M10" s="20" t="n">
         <v>0</v>
       </c>
@@ -7752,64 +7750,34 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="21" t="n">
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="E4" s="21"/>
       <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="21" t="n">
-        <v>0</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
       <c r="K4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
       <c r="N4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="21" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
       <c r="W4" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -7827,98 +7795,57 @@
       </c>
       <c r="E5" s="21"/>
       <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
+        <v>28</v>
+      </c>
+      <c r="G5" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="21" t="n">
+        <v>0.5</v>
+      </c>
       <c r="K5" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="21" t="n">
+        <v>0.5</v>
+      </c>
       <c r="N5" s="21" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S5" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T5" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U5" s="21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V5" s="21" t="n">
+        <v>0.5</v>
+      </c>
       <c r="W5" s="21" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="21" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -8482,40 +8409,40 @@
         <v>0</v>
       </c>
       <c r="L4" s="23" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0244</v>
       </c>
       <c r="M4" s="23" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="23" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="23" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="23" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="23" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="23" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="23" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="23" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="23" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="23" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -8668,9 +8595,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="23"/>
-      <c r="L7" s="23" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="23"/>
       <c r="M7" s="23" t="n">
         <v>1</v>
       </c>
@@ -8719,7 +8644,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="23" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -8790,7 +8715,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="23" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -8861,7 +8786,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="23" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -8882,7 +8807,7 @@
         <v>0.0414</v>
       </c>
       <c r="L10" s="23" t="n">
-        <v>0</v>
+        <v>0.0355</v>
       </c>
       <c r="M10" s="23" t="n">
         <v>0</v>
@@ -10181,9 +10106,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="27"/>
-      <c r="L7" s="27" t="n">
-        <v>0</v>
-      </c>
+      <c r="L7" s="27"/>
       <c r="M7" s="27" t="n">
         <v>0</v>
       </c>
@@ -10640,7 +10563,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="28" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -10711,7 +10634,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="28" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -10782,7 +10705,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="28" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -12121,40 +12044,40 @@
         <v>0.0154</v>
       </c>
       <c r="L4" s="31" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="31" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="31" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="31" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="31" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="31" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="31" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="31" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="31" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="31" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="31" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -12170,7 +12093,9 @@
       <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="31" t="n">
+        <v>0</v>
+      </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -12217,7 +12142,9 @@
       <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="31"/>
+      <c r="E6" s="31" t="n">
+        <v>0</v>
+      </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -12284,52 +12211,42 @@
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="31" t="n">
-        <v>0.0639</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="31" t="n">
-        <v>0.0185</v>
-      </c>
-      <c r="I7" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="31" t="n">
-        <v>0.0183</v>
-      </c>
-      <c r="K7" s="31" t="n">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
       <c r="L7" s="31" t="n">
         <v>0</v>
       </c>
       <c r="M7" s="31" t="n">
-        <v>0.0357</v>
+        <v>0</v>
       </c>
       <c r="N7" s="31" t="n">
-        <v>0.0351</v>
+        <v>0</v>
       </c>
       <c r="O7" s="31" t="n">
-        <v>0.0185</v>
+        <v>0</v>
       </c>
       <c r="P7" s="31" t="n">
-        <v>0.0179</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="31" t="n">
         <v>0</v>
       </c>
       <c r="R7" s="31" t="n">
-        <v>0.0364</v>
+        <v>0</v>
       </c>
       <c r="S7" s="31" t="n">
-        <v>0.0185</v>
+        <v>0</v>
       </c>
       <c r="T7" s="31" t="n">
         <v>0</v>
@@ -12338,10 +12255,10 @@
         <v>0</v>
       </c>
       <c r="V7" s="31" t="n">
-        <v>0.0186</v>
+        <v>0</v>
       </c>
       <c r="W7" s="31" t="n">
-        <v>0.1089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -12358,22 +12275,22 @@
         <v>31</v>
       </c>
       <c r="E8" s="31" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="31" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="31" t="n">
-        <v>0.01665</v>
+        <v>0.0185</v>
       </c>
       <c r="I8" s="31" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="31" t="n">
-        <v>0.01647</v>
+        <v>0.0183</v>
       </c>
       <c r="K8" s="31" t="n">
         <v>0</v>
@@ -12382,25 +12299,25 @@
         <v>0</v>
       </c>
       <c r="M8" s="31" t="n">
-        <v>0.03213</v>
+        <v>0.0357</v>
       </c>
       <c r="N8" s="31" t="n">
-        <v>0.03159</v>
+        <v>0.0351</v>
       </c>
       <c r="O8" s="31" t="n">
-        <v>0.01665</v>
+        <v>0.0185</v>
       </c>
       <c r="P8" s="31" t="n">
-        <v>0.01611</v>
+        <v>0.0179</v>
       </c>
       <c r="Q8" s="31" t="n">
         <v>0</v>
       </c>
       <c r="R8" s="31" t="n">
-        <v>0.03276</v>
+        <v>0.0364</v>
       </c>
       <c r="S8" s="31" t="n">
-        <v>0.01665</v>
+        <v>0.0185</v>
       </c>
       <c r="T8" s="31" t="n">
         <v>0</v>
@@ -12409,10 +12326,10 @@
         <v>0</v>
       </c>
       <c r="V8" s="31" t="n">
-        <v>0.01674</v>
+        <v>0.0186</v>
       </c>
       <c r="W8" s="31" t="n">
-        <v>0.09801</v>
+        <v>0.1089</v>
       </c>
     </row>
     <row r="9">
@@ -12429,61 +12346,132 @@
         <v>31</v>
       </c>
       <c r="E9" s="31" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="31" t="n">
+        <v>0.01665</v>
+      </c>
+      <c r="I9" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="31" t="n">
+        <v>0.01647</v>
+      </c>
+      <c r="K9" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="31" t="n">
+        <v>0.03213</v>
+      </c>
+      <c r="N9" s="31" t="n">
+        <v>0.03159</v>
+      </c>
+      <c r="O9" s="31" t="n">
+        <v>0.01665</v>
+      </c>
+      <c r="P9" s="31" t="n">
+        <v>0.01611</v>
+      </c>
+      <c r="Q9" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="31" t="n">
+        <v>0.03276</v>
+      </c>
+      <c r="S9" s="31" t="n">
+        <v>0.01665</v>
+      </c>
+      <c r="T9" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="31" t="n">
+        <v>0.01674</v>
+      </c>
+      <c r="W9" s="31" t="n">
+        <v>0.09801</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="31" t="n">
+        <v>0.0776</v>
+      </c>
+      <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="31" t="n">
+      <c r="G10" s="31" t="n">
         <v>0.0189</v>
       </c>
-      <c r="H9" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="31" t="n">
+      <c r="H10" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="31" t="n">
         <v>0.019</v>
       </c>
-      <c r="K9" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="31" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="M9" s="31" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="N9" s="31" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O9" s="31" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="P9" s="31" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="Q9" s="31" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="R9" s="31" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="S9" s="31" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="T9" s="31" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="U9" s="31" t="n">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="V9" s="31" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="W9" s="31" t="n">
-        <v>1</v>
+      <c r="K10" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="31" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12748,40 +12736,40 @@
         <v>0</v>
       </c>
       <c r="L4" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0068</v>
       </c>
       <c r="M4" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="32" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="32" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="32" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -12936,9 +12924,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="32"/>
-      <c r="L7" s="32" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="32"/>
       <c r="M7" s="32" t="n">
         <v>1</v>
       </c>
@@ -12987,7 +12973,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="32" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -13058,7 +13044,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="32" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -13129,7 +13115,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="32" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -13150,40 +13136,40 @@
         <v>0</v>
       </c>
       <c r="L10" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M10" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="32" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O10" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R10" s="32" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S10" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T10" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U10" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V10" s="32" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W10" s="32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13448,40 +13434,40 @@
         <v>0.0106</v>
       </c>
       <c r="L4" s="33" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0213</v>
       </c>
       <c r="M4" s="33" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="33" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="33" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="33" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="33" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="33" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="33" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="33" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="33" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="33" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -13683,7 +13669,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="33" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -13754,7 +13740,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="33" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -13825,7 +13811,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="33" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -13846,7 +13832,7 @@
         <v>0.0196</v>
       </c>
       <c r="L10" s="33" t="n">
-        <v>0</v>
+        <v>0.0385</v>
       </c>
       <c r="M10" s="33" t="n">
         <v>0</v>
@@ -14194,7 +14180,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>1</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -14243,7 +14229,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>1</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -14314,7 +14300,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>1</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -14329,40 +14315,40 @@
       </c>
       <c r="K7" s="34"/>
       <c r="L7" s="34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="34" t="n">
-        <v>1</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="N7" s="34" t="n">
-        <v>1</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="O7" s="34" t="n">
-        <v>1</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="P7" s="34" t="n">
-        <v>1</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="Q7" s="34" t="n">
-        <v>1</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="R7" s="34" t="n">
-        <v>1</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="S7" s="34" t="n">
-        <v>1</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="T7" s="34" t="n">
-        <v>1</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="U7" s="34" t="n">
-        <v>1</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="V7" s="34" t="n">
-        <v>1</v>
+        <v>0.714285714285714</v>
       </c>
       <c r="W7" s="34" t="n">
-        <v>1</v>
+        <v>0.714285714285714</v>
       </c>
     </row>
     <row r="8">
@@ -14379,7 +14365,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -14450,7 +14436,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -14521,7 +14507,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -14542,40 +14528,40 @@
         <v>0</v>
       </c>
       <c r="L10" s="34" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M10" s="34" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="34" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O10" s="34" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="34" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="34" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R10" s="34" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S10" s="34" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T10" s="34" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U10" s="34" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V10" s="34" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W10" s="34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -15253,9 +15239,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="36"/>
-      <c r="L7" s="36" t="n">
-        <v>0</v>
-      </c>
+      <c r="L7" s="36"/>
       <c r="M7" s="36" t="n">
         <v>0</v>
       </c>
@@ -15304,7 +15288,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="36" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -15375,7 +15359,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="36" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -15446,7 +15430,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="36" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -15467,40 +15451,40 @@
         <v>0</v>
       </c>
       <c r="L10" s="36" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M10" s="36" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="36" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O10" s="36" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="36" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="36" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R10" s="36" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S10" s="36" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T10" s="36" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U10" s="36" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V10" s="36" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W10" s="36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -15985,7 +15969,7 @@
         <v>30</v>
       </c>
       <c r="E3" s="39" t="n">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="F3" t="s">
         <v>29</v>
@@ -16006,39 +15990,100 @@
         <v>0</v>
       </c>
       <c r="L3" s="39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="39" t="n">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="N3" s="39" t="n">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="O3" s="39" t="n">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="P3" s="39" t="n">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Q3" s="39" t="n">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="R3" s="39" t="n">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="S3" s="39" t="n">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="T3" s="39" t="n">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="U3" s="39" t="n">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="V3" s="39" t="n">
-        <v>0</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="W3" s="39" t="n">
+        <v>0.166666666666667</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="39" t="n">
+        <v>0.0776</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16354,7 +16399,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -16425,7 +16470,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -16496,7 +16541,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -16800,7 +16845,7 @@
         <v>31</v>
       </c>
       <c r="E2" s="41" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -16845,7 +16890,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="41" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -16890,7 +16935,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="41" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -17194,16 +17239,16 @@
         <v>29</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>0.0244</v>
+        <v>0.0233</v>
       </c>
       <c r="H4" s="5" t="n">
+        <v>0.0238</v>
+      </c>
+      <c r="I4" s="5" t="n">
         <v>0.025</v>
       </c>
-      <c r="I4" s="5" t="n">
-        <v>0.0263</v>
-      </c>
       <c r="J4" s="5" t="n">
-        <v>0.0756</v>
+        <v>0.0719</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0</v>
@@ -17258,7 +17303,9 @@
       <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -17309,7 +17356,9 @@
       <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -17376,64 +17425,54 @@
         <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0639</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5" t="n">
-        <v>0.0064</v>
-      </c>
-      <c r="I7" s="5" t="n">
-        <v>0.0123</v>
-      </c>
-      <c r="J7" s="5" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>0.0237</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
       <c r="L7" s="5" t="n">
-        <v>0.0705</v>
+        <v>1</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>0.019</v>
+        <v>1</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1118</v>
+        <v>1</v>
       </c>
       <c r="O7" s="5" t="n">
-        <v>0.0127</v>
+        <v>1</v>
       </c>
       <c r="P7" s="5" t="n">
-        <v>0.0195</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="5" t="n">
-        <v>0.0338</v>
+        <v>1</v>
       </c>
       <c r="R7" s="5" t="n">
-        <v>0.0652</v>
+        <v>1</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>0.0067</v>
+        <v>1</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>0.0066</v>
+        <v>1</v>
       </c>
       <c r="U7" s="5" t="n">
-        <v>0.0063</v>
+        <v>1</v>
       </c>
       <c r="V7" s="5" t="n">
-        <v>0.0196</v>
+        <v>1</v>
       </c>
       <c r="W7" s="5" t="n">
-        <v>0.2177</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -17450,61 +17489,61 @@
         <v>31</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.00576</v>
+        <v>0.0064</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01107</v>
+        <v>0.0123</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0171</v>
+        <v>0.019</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02133</v>
+        <v>0.0237</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.06345</v>
+        <v>0.0705</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0171</v>
+        <v>0.019</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.10062</v>
+        <v>0.1118</v>
       </c>
       <c r="O8" s="5" t="n">
-        <v>0.01143</v>
+        <v>0.0127</v>
       </c>
       <c r="P8" s="5" t="n">
-        <v>0.01755</v>
+        <v>0.0195</v>
       </c>
       <c r="Q8" s="5" t="n">
-        <v>0.03042</v>
+        <v>0.0338</v>
       </c>
       <c r="R8" s="5" t="n">
-        <v>0.05868</v>
+        <v>0.0652</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>0.00603</v>
+        <v>0.0067</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>0.00594</v>
+        <v>0.0066</v>
       </c>
       <c r="U8" s="5" t="n">
-        <v>0.00567</v>
+        <v>0.0063</v>
       </c>
       <c r="V8" s="5" t="n">
-        <v>0.01764</v>
+        <v>0.0196</v>
       </c>
       <c r="W8" s="5" t="n">
-        <v>0.19593</v>
+        <v>0.2177</v>
       </c>
     </row>
     <row r="9">
@@ -17521,60 +17560,131 @@
         <v>31</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.00576</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.01107</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.0171</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>0.02133</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.06345</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.0171</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.10062</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0.01143</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>0.01755</v>
+      </c>
+      <c r="Q9" s="5" t="n">
+        <v>0.03042</v>
+      </c>
+      <c r="R9" s="5" t="n">
+        <v>0.05868</v>
+      </c>
+      <c r="S9" s="5" t="n">
+        <v>0.00603</v>
+      </c>
+      <c r="T9" s="5" t="n">
+        <v>0.00594</v>
+      </c>
+      <c r="U9" s="5" t="n">
+        <v>0.00567</v>
+      </c>
+      <c r="V9" s="5" t="n">
+        <v>0.01764</v>
+      </c>
+      <c r="W9" s="5" t="n">
+        <v>0.19593</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.0776</v>
+      </c>
+      <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="5" t="n">
-        <v>0.0196</v>
-      </c>
-      <c r="H9" s="5" t="n">
-        <v>0.0201</v>
-      </c>
-      <c r="I9" s="5" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="J9" s="5" t="n">
-        <v>0.0526</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>0.0265</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="5" t="n">
+      <c r="G10" s="5" t="n">
+        <v>0.0199</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.0204</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.0132</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>0.0533</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.0268</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.0197</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17831,49 +17941,49 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0167</v>
+        <v>0.0169</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.0165</v>
+        <v>0.0168</v>
       </c>
       <c r="K4" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -18008,7 +18118,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -18079,7 +18189,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -18150,7 +18260,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -18633,7 +18743,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -18704,7 +18814,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -18775,7 +18885,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -18796,40 +18906,40 @@
         <v>0.0123</v>
       </c>
       <c r="L9" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M9" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O9" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R9" s="7" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S9" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T9" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U9" s="7" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V9" s="7" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W9" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_IPS Clutches & Brakes Division.xlsx
+++ b/outputs/SORs/SOR Testing_IPS Clutches & Brakes Division.xlsx
@@ -772,7 +772,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0</v>
+        <v>0.1282</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -843,7 +843,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0</v>
+        <v>0.1282</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -914,7 +914,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0</v>
+        <v>0.1282</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -938,37 +938,37 @@
         <v>0.0455</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0</v>
+        <v>0.0256416666666667</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0</v>
+        <v>0.076925</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0</v>
+        <v>0.0256416666666667</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0</v>
+        <v>0.0256416666666667</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0</v>
+        <v>0.0256416666666667</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0</v>
+        <v>0.076925</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0</v>
+        <v>0.0256416666666667</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0</v>
+        <v>0.0256416666666667</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0</v>
+        <v>0.0256416666666667</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0</v>
+        <v>0.076925</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0</v>
+        <v>0.3077</v>
       </c>
     </row>
     <row r="5">
@@ -1109,7 +1109,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.0776</v>
+        <v>0.0391</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -1180,7 +1180,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.0776</v>
+        <v>0.0391</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -1251,7 +1251,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.0776</v>
+        <v>0.0391</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -1275,37 +1275,37 @@
         <v>0</v>
       </c>
       <c r="M9" s="1" t="n">
-        <v>0</v>
+        <v>0.00781666666666667</v>
       </c>
       <c r="N9" s="1" t="n">
-        <v>0</v>
+        <v>0.02345</v>
       </c>
       <c r="O9" s="1" t="n">
-        <v>0</v>
+        <v>0.00781666666666667</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>0</v>
+        <v>0.00781666666666667</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>0</v>
+        <v>0.00781666666666667</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0</v>
+        <v>0.02345</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>0</v>
+        <v>0.00781666666666667</v>
       </c>
       <c r="T9" s="1" t="n">
-        <v>0</v>
+        <v>0.00781666666666667</v>
       </c>
       <c r="U9" s="1" t="n">
-        <v>0</v>
+        <v>0.00781666666666667</v>
       </c>
       <c r="V9" s="1" t="n">
-        <v>0</v>
+        <v>0.02345</v>
       </c>
       <c r="W9" s="1" t="n">
-        <v>0</v>
+        <v>0.0938</v>
       </c>
     </row>
   </sheetData>
@@ -1620,7 +1620,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>0.0776</v>
+        <v>0.0281</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -1691,7 +1691,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>0.0776</v>
+        <v>0.0281</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1762,7 +1762,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>0.0776</v>
+        <v>0.0281</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -1786,37 +1786,37 @@
         <v>0</v>
       </c>
       <c r="M7" s="10" t="n">
-        <v>0</v>
+        <v>0.00561666666666667</v>
       </c>
       <c r="N7" s="10" t="n">
-        <v>0</v>
+        <v>0.01685</v>
       </c>
       <c r="O7" s="10" t="n">
-        <v>0</v>
+        <v>0.00561666666666667</v>
       </c>
       <c r="P7" s="10" t="n">
-        <v>0</v>
+        <v>0.00561666666666667</v>
       </c>
       <c r="Q7" s="10" t="n">
-        <v>0</v>
+        <v>0.00561666666666667</v>
       </c>
       <c r="R7" s="10" t="n">
-        <v>0</v>
+        <v>0.01685</v>
       </c>
       <c r="S7" s="10" t="n">
-        <v>0</v>
+        <v>0.00561666666666667</v>
       </c>
       <c r="T7" s="10" t="n">
-        <v>0</v>
+        <v>0.00561666666666667</v>
       </c>
       <c r="U7" s="10" t="n">
-        <v>0</v>
+        <v>0.00561666666666667</v>
       </c>
       <c r="V7" s="10" t="n">
-        <v>0</v>
+        <v>0.01685</v>
       </c>
       <c r="W7" s="10" t="n">
-        <v>0</v>
+        <v>0.0674</v>
       </c>
     </row>
   </sheetData>
@@ -1918,7 +1918,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="11" t="n">
-        <v>0</v>
+        <v>0.0181</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1989,7 +1989,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="11" t="n">
-        <v>0</v>
+        <v>0.0181</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2060,7 +2060,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>0</v>
+        <v>0.0181</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2084,37 +2084,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="11" t="n">
-        <v>0</v>
+        <v>0.00361666666666667</v>
       </c>
       <c r="N4" s="11" t="n">
-        <v>0</v>
+        <v>0.01085</v>
       </c>
       <c r="O4" s="11" t="n">
-        <v>0</v>
+        <v>0.00361666666666667</v>
       </c>
       <c r="P4" s="11" t="n">
-        <v>0</v>
+        <v>0.00361666666666667</v>
       </c>
       <c r="Q4" s="11" t="n">
-        <v>0</v>
+        <v>0.00361666666666667</v>
       </c>
       <c r="R4" s="11" t="n">
-        <v>0</v>
+        <v>0.01085</v>
       </c>
       <c r="S4" s="11" t="n">
-        <v>0</v>
+        <v>0.00361666666666667</v>
       </c>
       <c r="T4" s="11" t="n">
-        <v>0</v>
+        <v>0.00361666666666667</v>
       </c>
       <c r="U4" s="11" t="n">
-        <v>0</v>
+        <v>0.00361666666666667</v>
       </c>
       <c r="V4" s="11" t="n">
-        <v>0</v>
+        <v>0.01085</v>
       </c>
       <c r="W4" s="11" t="n">
-        <v>0</v>
+        <v>0.0434</v>
       </c>
     </row>
     <row r="5">
@@ -2245,7 +2245,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="11" t="n">
-        <v>0.0776</v>
+        <v>0.0505</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2316,7 +2316,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="11" t="n">
-        <v>0.0776</v>
+        <v>0.0505</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -2387,7 +2387,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>0.0776</v>
+        <v>0.0505</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -2411,37 +2411,37 @@
         <v>0</v>
       </c>
       <c r="M9" s="11" t="n">
-        <v>0</v>
+        <v>0.0101</v>
       </c>
       <c r="N9" s="11" t="n">
-        <v>0</v>
+        <v>0.0303</v>
       </c>
       <c r="O9" s="11" t="n">
-        <v>0</v>
+        <v>0.0101</v>
       </c>
       <c r="P9" s="11" t="n">
-        <v>0</v>
+        <v>0.0101</v>
       </c>
       <c r="Q9" s="11" t="n">
-        <v>0</v>
+        <v>0.0101</v>
       </c>
       <c r="R9" s="11" t="n">
-        <v>0</v>
+        <v>0.0303</v>
       </c>
       <c r="S9" s="11" t="n">
-        <v>0</v>
+        <v>0.0101</v>
       </c>
       <c r="T9" s="11" t="n">
-        <v>0</v>
+        <v>0.0101</v>
       </c>
       <c r="U9" s="11" t="n">
-        <v>0</v>
+        <v>0.0101</v>
       </c>
       <c r="V9" s="11" t="n">
-        <v>0</v>
+        <v>0.0303</v>
       </c>
       <c r="W9" s="11" t="n">
-        <v>0</v>
+        <v>0.1212</v>
       </c>
     </row>
   </sheetData>
@@ -2866,7 +2866,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="12" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2937,7 +2937,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="12" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -3008,7 +3008,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="12" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -3462,7 +3462,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="14" t="n">
-        <v>0</v>
+        <v>0.0833</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3533,7 +3533,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="14" t="n">
-        <v>0</v>
+        <v>0.0833</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3604,7 +3604,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="14" t="n">
-        <v>0</v>
+        <v>0.0833</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3628,37 +3628,37 @@
         <v>0.04</v>
       </c>
       <c r="M4" s="14" t="n">
-        <v>0</v>
+        <v>0.0166583333333333</v>
       </c>
       <c r="N4" s="14" t="n">
-        <v>0</v>
+        <v>0.049975</v>
       </c>
       <c r="O4" s="14" t="n">
-        <v>0</v>
+        <v>0.0166583333333333</v>
       </c>
       <c r="P4" s="14" t="n">
-        <v>0</v>
+        <v>0.0166583333333333</v>
       </c>
       <c r="Q4" s="14" t="n">
-        <v>0</v>
+        <v>0.0166583333333333</v>
       </c>
       <c r="R4" s="14" t="n">
-        <v>0</v>
+        <v>0.049975</v>
       </c>
       <c r="S4" s="14" t="n">
-        <v>0</v>
+        <v>0.0166583333333333</v>
       </c>
       <c r="T4" s="14" t="n">
-        <v>0</v>
+        <v>0.0166583333333333</v>
       </c>
       <c r="U4" s="14" t="n">
-        <v>0</v>
+        <v>0.0166583333333333</v>
       </c>
       <c r="V4" s="14" t="n">
-        <v>0</v>
+        <v>0.049975</v>
       </c>
       <c r="W4" s="14" t="n">
-        <v>0</v>
+        <v>0.1999</v>
       </c>
     </row>
     <row r="5">
@@ -3856,7 +3856,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3927,7 +3927,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3998,7 +3998,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="14" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -5158,7 +5158,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="18" t="n">
-        <v>0</v>
+        <v>0.0216</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5229,7 +5229,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="18" t="n">
-        <v>0</v>
+        <v>0.0216</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5300,7 +5300,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="18" t="n">
-        <v>0</v>
+        <v>0.0216</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5324,37 +5324,37 @@
         <v>0.0217</v>
       </c>
       <c r="M4" s="18" t="n">
-        <v>0</v>
+        <v>0.00431666666666667</v>
       </c>
       <c r="N4" s="18" t="n">
-        <v>0</v>
+        <v>0.01295</v>
       </c>
       <c r="O4" s="18" t="n">
-        <v>0</v>
+        <v>0.00431666666666667</v>
       </c>
       <c r="P4" s="18" t="n">
-        <v>0</v>
+        <v>0.00431666666666667</v>
       </c>
       <c r="Q4" s="18" t="n">
-        <v>0</v>
+        <v>0.00431666666666667</v>
       </c>
       <c r="R4" s="18" t="n">
-        <v>0</v>
+        <v>0.01295</v>
       </c>
       <c r="S4" s="18" t="n">
-        <v>0</v>
+        <v>0.00431666666666667</v>
       </c>
       <c r="T4" s="18" t="n">
-        <v>0</v>
+        <v>0.00431666666666667</v>
       </c>
       <c r="U4" s="18" t="n">
-        <v>0</v>
+        <v>0.00431666666666667</v>
       </c>
       <c r="V4" s="18" t="n">
-        <v>0</v>
+        <v>0.01295</v>
       </c>
       <c r="W4" s="18" t="n">
-        <v>0</v>
+        <v>0.0518</v>
       </c>
     </row>
     <row r="5">
@@ -5489,7 +5489,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="18" t="n">
-        <v>0.0776</v>
+        <v>0.0187</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -5560,7 +5560,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="18" t="n">
-        <v>0.0776</v>
+        <v>0.0187</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -5631,7 +5631,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="18" t="n">
-        <v>0.0776</v>
+        <v>0.0187</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -5655,37 +5655,37 @@
         <v>0</v>
       </c>
       <c r="M9" s="18" t="n">
-        <v>0</v>
+        <v>0.00374166666666667</v>
       </c>
       <c r="N9" s="18" t="n">
-        <v>0</v>
+        <v>0.011225</v>
       </c>
       <c r="O9" s="18" t="n">
-        <v>0</v>
+        <v>0.00374166666666667</v>
       </c>
       <c r="P9" s="18" t="n">
-        <v>0</v>
+        <v>0.00374166666666667</v>
       </c>
       <c r="Q9" s="18" t="n">
-        <v>0</v>
+        <v>0.00374166666666667</v>
       </c>
       <c r="R9" s="18" t="n">
-        <v>0</v>
+        <v>0.011225</v>
       </c>
       <c r="S9" s="18" t="n">
-        <v>0</v>
+        <v>0.00374166666666667</v>
       </c>
       <c r="T9" s="18" t="n">
-        <v>0</v>
+        <v>0.00374166666666667</v>
       </c>
       <c r="U9" s="18" t="n">
-        <v>0</v>
+        <v>0.00374166666666667</v>
       </c>
       <c r="V9" s="18" t="n">
-        <v>0</v>
+        <v>0.011225</v>
       </c>
       <c r="W9" s="18" t="n">
-        <v>0</v>
+        <v>0.0449</v>
       </c>
     </row>
   </sheetData>
@@ -6195,7 +6195,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0</v>
+        <v>0.0351</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6266,7 +6266,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0</v>
+        <v>0.0351</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6337,7 +6337,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0</v>
+        <v>0.0351</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6361,37 +6361,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0</v>
+        <v>0.00701666666666667</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>0</v>
+        <v>0.02105</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0</v>
+        <v>0.00701666666666667</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>0</v>
+        <v>0.00701666666666667</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>0.00701666666666667</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0</v>
+        <v>0.02105</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>0</v>
+        <v>0.00701666666666667</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>0</v>
+        <v>0.00701666666666667</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0</v>
+        <v>0.00701666666666667</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>0</v>
+        <v>0.02105</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0</v>
+        <v>0.0842</v>
       </c>
     </row>
     <row r="5">
@@ -6607,7 +6607,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.0776</v>
+        <v>0.067</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -6678,7 +6678,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.0776</v>
+        <v>0.067</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -6749,7 +6749,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.0776</v>
+        <v>0.067</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -6773,37 +6773,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>0</v>
+        <v>0.0134</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>0</v>
+        <v>0.0402</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>0</v>
+        <v>0.0134</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>0</v>
+        <v>0.0134</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>0.0134</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0</v>
+        <v>0.0402</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>0</v>
+        <v>0.0134</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>0</v>
+        <v>0.0134</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0</v>
+        <v>0.0134</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>0</v>
+        <v>0.0402</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0</v>
+        <v>0.1608</v>
       </c>
     </row>
   </sheetData>
@@ -6905,7 +6905,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="20" t="n">
-        <v>0</v>
+        <v>0.0578</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6976,7 +6976,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="20" t="n">
-        <v>0</v>
+        <v>0.0578</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -7047,7 +7047,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="20" t="n">
-        <v>0</v>
+        <v>0.0578</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -7071,37 +7071,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="20" t="n">
-        <v>0</v>
+        <v>0.0115583333333333</v>
       </c>
       <c r="N4" s="20" t="n">
-        <v>0</v>
+        <v>0.034675</v>
       </c>
       <c r="O4" s="20" t="n">
-        <v>0</v>
+        <v>0.0115583333333333</v>
       </c>
       <c r="P4" s="20" t="n">
-        <v>0</v>
+        <v>0.0115583333333333</v>
       </c>
       <c r="Q4" s="20" t="n">
-        <v>0</v>
+        <v>0.0115583333333333</v>
       </c>
       <c r="R4" s="20" t="n">
-        <v>0</v>
+        <v>0.034675</v>
       </c>
       <c r="S4" s="20" t="n">
-        <v>0</v>
+        <v>0.0115583333333333</v>
       </c>
       <c r="T4" s="20" t="n">
-        <v>0</v>
+        <v>0.0115583333333333</v>
       </c>
       <c r="U4" s="20" t="n">
-        <v>0</v>
+        <v>0.0115583333333333</v>
       </c>
       <c r="V4" s="20" t="n">
-        <v>0</v>
+        <v>0.034675</v>
       </c>
       <c r="W4" s="20" t="n">
-        <v>0</v>
+        <v>0.1387</v>
       </c>
     </row>
     <row r="5">
@@ -7315,7 +7315,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="20" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -7386,7 +7386,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="20" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -7457,7 +7457,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="20" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -7610,9 +7610,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="21"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -7681,9 +7679,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="21"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -8246,7 +8242,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="23" t="n">
-        <v>0</v>
+        <v>0.0472</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -8317,7 +8313,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="23" t="n">
-        <v>0</v>
+        <v>0.0472</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -8388,7 +8384,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="23" t="n">
-        <v>0</v>
+        <v>0.0472</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -8412,37 +8408,37 @@
         <v>0.0244</v>
       </c>
       <c r="M4" s="23" t="n">
-        <v>0</v>
+        <v>0.00944166666666667</v>
       </c>
       <c r="N4" s="23" t="n">
-        <v>0</v>
+        <v>0.028325</v>
       </c>
       <c r="O4" s="23" t="n">
-        <v>0</v>
+        <v>0.00944166666666667</v>
       </c>
       <c r="P4" s="23" t="n">
-        <v>0</v>
+        <v>0.00944166666666667</v>
       </c>
       <c r="Q4" s="23" t="n">
-        <v>0</v>
+        <v>0.00944166666666667</v>
       </c>
       <c r="R4" s="23" t="n">
-        <v>0</v>
+        <v>0.028325</v>
       </c>
       <c r="S4" s="23" t="n">
-        <v>0</v>
+        <v>0.00944166666666667</v>
       </c>
       <c r="T4" s="23" t="n">
-        <v>0</v>
+        <v>0.00944166666666667</v>
       </c>
       <c r="U4" s="23" t="n">
-        <v>0</v>
+        <v>0.00944166666666667</v>
       </c>
       <c r="V4" s="23" t="n">
-        <v>0</v>
+        <v>0.028325</v>
       </c>
       <c r="W4" s="23" t="n">
-        <v>0</v>
+        <v>0.1133</v>
       </c>
     </row>
     <row r="5">
@@ -8644,7 +8640,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="23" t="n">
-        <v>0.0776</v>
+        <v>0.1446</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -8715,7 +8711,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="23" t="n">
-        <v>0.0776</v>
+        <v>0.1446</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -8786,7 +8782,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="23" t="n">
-        <v>0.0776</v>
+        <v>0.1446</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -8810,37 +8806,37 @@
         <v>0.0355</v>
       </c>
       <c r="M10" s="23" t="n">
-        <v>0</v>
+        <v>0.0289166666666667</v>
       </c>
       <c r="N10" s="23" t="n">
-        <v>0</v>
+        <v>0.08675</v>
       </c>
       <c r="O10" s="23" t="n">
-        <v>0</v>
+        <v>0.0289166666666667</v>
       </c>
       <c r="P10" s="23" t="n">
-        <v>0</v>
+        <v>0.0289166666666667</v>
       </c>
       <c r="Q10" s="23" t="n">
-        <v>0</v>
+        <v>0.0289166666666667</v>
       </c>
       <c r="R10" s="23" t="n">
-        <v>0</v>
+        <v>0.08675</v>
       </c>
       <c r="S10" s="23" t="n">
-        <v>0</v>
+        <v>0.0289166666666667</v>
       </c>
       <c r="T10" s="23" t="n">
-        <v>0</v>
+        <v>0.0289166666666667</v>
       </c>
       <c r="U10" s="23" t="n">
-        <v>0</v>
+        <v>0.0289166666666667</v>
       </c>
       <c r="V10" s="23" t="n">
-        <v>0</v>
+        <v>0.08675</v>
       </c>
       <c r="W10" s="23" t="n">
-        <v>0</v>
+        <v>0.347</v>
       </c>
     </row>
   </sheetData>
@@ -9537,9 +9533,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="26"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -9608,9 +9602,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="26" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="26"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -10240,7 +10232,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="28" t="n">
-        <v>0</v>
+        <v>0.0855</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -10311,7 +10303,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="28" t="n">
-        <v>0</v>
+        <v>0.0855</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -10382,7 +10374,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="28" t="n">
-        <v>0</v>
+        <v>0.0855</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -10406,37 +10398,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="28" t="n">
-        <v>0</v>
+        <v>0.0171</v>
       </c>
       <c r="N4" s="28" t="n">
-        <v>0</v>
+        <v>0.0513</v>
       </c>
       <c r="O4" s="28" t="n">
-        <v>0</v>
+        <v>0.0171</v>
       </c>
       <c r="P4" s="28" t="n">
-        <v>0</v>
+        <v>0.0171</v>
       </c>
       <c r="Q4" s="28" t="n">
-        <v>0</v>
+        <v>0.0171</v>
       </c>
       <c r="R4" s="28" t="n">
-        <v>0</v>
+        <v>0.0513</v>
       </c>
       <c r="S4" s="28" t="n">
-        <v>0</v>
+        <v>0.0171</v>
       </c>
       <c r="T4" s="28" t="n">
-        <v>0</v>
+        <v>0.0171</v>
       </c>
       <c r="U4" s="28" t="n">
-        <v>0</v>
+        <v>0.0171</v>
       </c>
       <c r="V4" s="28" t="n">
-        <v>0</v>
+        <v>0.0513</v>
       </c>
       <c r="W4" s="28" t="n">
-        <v>0</v>
+        <v>0.2052</v>
       </c>
     </row>
     <row r="5">
@@ -10563,7 +10555,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="28" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -10634,7 +10626,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="28" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -10705,7 +10697,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="28" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -11159,7 +11151,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0</v>
+        <v>0.2273</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11230,7 +11222,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0</v>
+        <v>0.2273</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11301,7 +11293,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0</v>
+        <v>0.2273</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -11325,37 +11317,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0</v>
+        <v>0.0454583333333333</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0</v>
+        <v>0.136375</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0</v>
+        <v>0.0454583333333333</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0</v>
+        <v>0.0454583333333333</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0</v>
+        <v>0.0454583333333333</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0</v>
+        <v>0.136375</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0</v>
+        <v>0.0454583333333333</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0</v>
+        <v>0.0454583333333333</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0</v>
+        <v>0.0454583333333333</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0</v>
+        <v>0.136375</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>0</v>
+        <v>0.5455</v>
       </c>
     </row>
   </sheetData>
@@ -11457,7 +11449,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="30" t="n">
-        <v>0</v>
+        <v>0.0407</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11528,7 +11520,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="30" t="n">
-        <v>0</v>
+        <v>0.0407</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11599,7 +11591,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="30" t="n">
-        <v>0</v>
+        <v>0.0407</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -11623,37 +11615,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="30" t="n">
-        <v>0</v>
+        <v>0.00814166666666667</v>
       </c>
       <c r="N4" s="30" t="n">
-        <v>0</v>
+        <v>0.024425</v>
       </c>
       <c r="O4" s="30" t="n">
-        <v>0</v>
+        <v>0.00814166666666667</v>
       </c>
       <c r="P4" s="30" t="n">
-        <v>0</v>
+        <v>0.00814166666666667</v>
       </c>
       <c r="Q4" s="30" t="n">
-        <v>0</v>
+        <v>0.00814166666666667</v>
       </c>
       <c r="R4" s="30" t="n">
-        <v>0</v>
+        <v>0.024425</v>
       </c>
       <c r="S4" s="30" t="n">
-        <v>0</v>
+        <v>0.00814166666666667</v>
       </c>
       <c r="T4" s="30" t="n">
-        <v>0</v>
+        <v>0.00814166666666667</v>
       </c>
       <c r="U4" s="30" t="n">
-        <v>0</v>
+        <v>0.00814166666666667</v>
       </c>
       <c r="V4" s="30" t="n">
-        <v>0</v>
+        <v>0.024425</v>
       </c>
       <c r="W4" s="30" t="n">
-        <v>0</v>
+        <v>0.0977</v>
       </c>
     </row>
     <row r="5">
@@ -11881,7 +11873,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="31" t="n">
-        <v>0</v>
+        <v>0.0312</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11952,7 +11944,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="31" t="n">
-        <v>0</v>
+        <v>0.0312</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -12023,7 +12015,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="31" t="n">
-        <v>0</v>
+        <v>0.0312</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -12047,37 +12039,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="31" t="n">
-        <v>0</v>
+        <v>0.00624166666666667</v>
       </c>
       <c r="N4" s="31" t="n">
-        <v>0</v>
+        <v>0.018725</v>
       </c>
       <c r="O4" s="31" t="n">
-        <v>0</v>
+        <v>0.00624166666666667</v>
       </c>
       <c r="P4" s="31" t="n">
-        <v>0</v>
+        <v>0.00624166666666667</v>
       </c>
       <c r="Q4" s="31" t="n">
-        <v>0</v>
+        <v>0.00624166666666667</v>
       </c>
       <c r="R4" s="31" t="n">
-        <v>0</v>
+        <v>0.018725</v>
       </c>
       <c r="S4" s="31" t="n">
-        <v>0</v>
+        <v>0.00624166666666667</v>
       </c>
       <c r="T4" s="31" t="n">
-        <v>0</v>
+        <v>0.00624166666666667</v>
       </c>
       <c r="U4" s="31" t="n">
-        <v>0</v>
+        <v>0.00624166666666667</v>
       </c>
       <c r="V4" s="31" t="n">
-        <v>0</v>
+        <v>0.018725</v>
       </c>
       <c r="W4" s="31" t="n">
-        <v>0</v>
+        <v>0.0749</v>
       </c>
     </row>
     <row r="5">
@@ -12275,7 +12267,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="31" t="n">
-        <v>0.0776</v>
+        <v>0.0189</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -12346,7 +12338,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="31" t="n">
-        <v>0.0776</v>
+        <v>0.0189</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -12417,7 +12409,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="31" t="n">
-        <v>0.0776</v>
+        <v>0.0189</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -12441,37 +12433,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="31" t="n">
-        <v>0</v>
+        <v>0.00378333333333333</v>
       </c>
       <c r="N10" s="31" t="n">
-        <v>0</v>
+        <v>0.01135</v>
       </c>
       <c r="O10" s="31" t="n">
-        <v>0</v>
+        <v>0.00378333333333333</v>
       </c>
       <c r="P10" s="31" t="n">
-        <v>0</v>
+        <v>0.00378333333333333</v>
       </c>
       <c r="Q10" s="31" t="n">
-        <v>0</v>
+        <v>0.00378333333333333</v>
       </c>
       <c r="R10" s="31" t="n">
-        <v>0</v>
+        <v>0.01135</v>
       </c>
       <c r="S10" s="31" t="n">
-        <v>0</v>
+        <v>0.00378333333333333</v>
       </c>
       <c r="T10" s="31" t="n">
-        <v>0</v>
+        <v>0.00378333333333333</v>
       </c>
       <c r="U10" s="31" t="n">
-        <v>0</v>
+        <v>0.00378333333333333</v>
       </c>
       <c r="V10" s="31" t="n">
-        <v>0</v>
+        <v>0.01135</v>
       </c>
       <c r="W10" s="31" t="n">
-        <v>0</v>
+        <v>0.0454</v>
       </c>
     </row>
   </sheetData>
@@ -12573,7 +12565,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="32" t="n">
-        <v>0</v>
+        <v>0.0205</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -12644,7 +12636,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="32" t="n">
-        <v>0</v>
+        <v>0.0205</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -12715,7 +12707,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="32" t="n">
-        <v>0</v>
+        <v>0.0205</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -12739,37 +12731,37 @@
         <v>0.0068</v>
       </c>
       <c r="M4" s="32" t="n">
-        <v>0</v>
+        <v>0.0041</v>
       </c>
       <c r="N4" s="32" t="n">
-        <v>0</v>
+        <v>0.0123</v>
       </c>
       <c r="O4" s="32" t="n">
-        <v>0</v>
+        <v>0.0041</v>
       </c>
       <c r="P4" s="32" t="n">
-        <v>0</v>
+        <v>0.0041</v>
       </c>
       <c r="Q4" s="32" t="n">
-        <v>0</v>
+        <v>0.0041</v>
       </c>
       <c r="R4" s="32" t="n">
-        <v>0</v>
+        <v>0.0123</v>
       </c>
       <c r="S4" s="32" t="n">
-        <v>0</v>
+        <v>0.0041</v>
       </c>
       <c r="T4" s="32" t="n">
-        <v>0</v>
+        <v>0.0041</v>
       </c>
       <c r="U4" s="32" t="n">
-        <v>0</v>
+        <v>0.0041</v>
       </c>
       <c r="V4" s="32" t="n">
-        <v>0</v>
+        <v>0.0123</v>
       </c>
       <c r="W4" s="32" t="n">
-        <v>0</v>
+        <v>0.0492</v>
       </c>
     </row>
     <row r="5">
@@ -12973,7 +12965,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="32" t="n">
-        <v>0.0776</v>
+        <v>0.0081</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -13044,7 +13036,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="32" t="n">
-        <v>0.0776</v>
+        <v>0.0081</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -13115,7 +13107,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="32" t="n">
-        <v>0.0776</v>
+        <v>0.0081</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -13139,37 +13131,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="32" t="n">
-        <v>0</v>
+        <v>0.00161666666666667</v>
       </c>
       <c r="N10" s="32" t="n">
-        <v>0</v>
+        <v>0.00485</v>
       </c>
       <c r="O10" s="32" t="n">
-        <v>0</v>
+        <v>0.00161666666666667</v>
       </c>
       <c r="P10" s="32" t="n">
-        <v>0</v>
+        <v>0.00161666666666667</v>
       </c>
       <c r="Q10" s="32" t="n">
-        <v>0</v>
+        <v>0.00161666666666667</v>
       </c>
       <c r="R10" s="32" t="n">
-        <v>0</v>
+        <v>0.00485</v>
       </c>
       <c r="S10" s="32" t="n">
-        <v>0</v>
+        <v>0.00161666666666667</v>
       </c>
       <c r="T10" s="32" t="n">
-        <v>0</v>
+        <v>0.00161666666666667</v>
       </c>
       <c r="U10" s="32" t="n">
-        <v>0</v>
+        <v>0.00161666666666667</v>
       </c>
       <c r="V10" s="32" t="n">
-        <v>0</v>
+        <v>0.00485</v>
       </c>
       <c r="W10" s="32" t="n">
-        <v>0</v>
+        <v>0.0194</v>
       </c>
     </row>
   </sheetData>
@@ -13271,7 +13263,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="33" t="n">
-        <v>0</v>
+        <v>0.0426</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -13342,7 +13334,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="33" t="n">
-        <v>0</v>
+        <v>0.0426</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -13413,7 +13405,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="33" t="n">
-        <v>0</v>
+        <v>0.0426</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -13437,37 +13429,37 @@
         <v>0.0213</v>
       </c>
       <c r="M4" s="33" t="n">
-        <v>0</v>
+        <v>0.00851666666666667</v>
       </c>
       <c r="N4" s="33" t="n">
-        <v>0</v>
+        <v>0.02555</v>
       </c>
       <c r="O4" s="33" t="n">
-        <v>0</v>
+        <v>0.00851666666666667</v>
       </c>
       <c r="P4" s="33" t="n">
-        <v>0</v>
+        <v>0.00851666666666667</v>
       </c>
       <c r="Q4" s="33" t="n">
-        <v>0</v>
+        <v>0.00851666666666667</v>
       </c>
       <c r="R4" s="33" t="n">
-        <v>0</v>
+        <v>0.02555</v>
       </c>
       <c r="S4" s="33" t="n">
-        <v>0</v>
+        <v>0.00851666666666667</v>
       </c>
       <c r="T4" s="33" t="n">
-        <v>0</v>
+        <v>0.00851666666666667</v>
       </c>
       <c r="U4" s="33" t="n">
-        <v>0</v>
+        <v>0.00851666666666667</v>
       </c>
       <c r="V4" s="33" t="n">
-        <v>0</v>
+        <v>0.02555</v>
       </c>
       <c r="W4" s="33" t="n">
-        <v>0</v>
+        <v>0.1022</v>
       </c>
     </row>
     <row r="5">
@@ -13669,7 +13661,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="33" t="n">
-        <v>0.0776</v>
+        <v>0.0943</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -13740,7 +13732,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="33" t="n">
-        <v>0.0776</v>
+        <v>0.0943</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -13811,7 +13803,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="33" t="n">
-        <v>0.0776</v>
+        <v>0.0943</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -13835,37 +13827,37 @@
         <v>0.0385</v>
       </c>
       <c r="M10" s="33" t="n">
-        <v>0</v>
+        <v>0.0188583333333333</v>
       </c>
       <c r="N10" s="33" t="n">
-        <v>0</v>
+        <v>0.056575</v>
       </c>
       <c r="O10" s="33" t="n">
-        <v>0</v>
+        <v>0.0188583333333333</v>
       </c>
       <c r="P10" s="33" t="n">
-        <v>0</v>
+        <v>0.0188583333333333</v>
       </c>
       <c r="Q10" s="33" t="n">
-        <v>0</v>
+        <v>0.0188583333333333</v>
       </c>
       <c r="R10" s="33" t="n">
-        <v>0</v>
+        <v>0.056575</v>
       </c>
       <c r="S10" s="33" t="n">
-        <v>0</v>
+        <v>0.0188583333333333</v>
       </c>
       <c r="T10" s="33" t="n">
-        <v>0</v>
+        <v>0.0188583333333333</v>
       </c>
       <c r="U10" s="33" t="n">
-        <v>0</v>
+        <v>0.0188583333333333</v>
       </c>
       <c r="V10" s="33" t="n">
-        <v>0</v>
+        <v>0.056575</v>
       </c>
       <c r="W10" s="33" t="n">
-        <v>0</v>
+        <v>0.2263</v>
       </c>
     </row>
   </sheetData>
@@ -13967,7 +13959,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0</v>
+        <v>0.0617</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -14038,7 +14030,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0</v>
+        <v>0.0617</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -14109,7 +14101,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0</v>
+        <v>0.0617</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -14133,37 +14125,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="34" t="n">
-        <v>0</v>
+        <v>0.0123416666666667</v>
       </c>
       <c r="N4" s="34" t="n">
-        <v>0</v>
+        <v>0.037025</v>
       </c>
       <c r="O4" s="34" t="n">
-        <v>0</v>
+        <v>0.0123416666666667</v>
       </c>
       <c r="P4" s="34" t="n">
-        <v>0</v>
+        <v>0.0123416666666667</v>
       </c>
       <c r="Q4" s="34" t="n">
-        <v>0</v>
+        <v>0.0123416666666667</v>
       </c>
       <c r="R4" s="34" t="n">
-        <v>0</v>
+        <v>0.037025</v>
       </c>
       <c r="S4" s="34" t="n">
-        <v>0</v>
+        <v>0.0123416666666667</v>
       </c>
       <c r="T4" s="34" t="n">
-        <v>0</v>
+        <v>0.0123416666666667</v>
       </c>
       <c r="U4" s="34" t="n">
-        <v>0</v>
+        <v>0.0123416666666667</v>
       </c>
       <c r="V4" s="34" t="n">
-        <v>0</v>
+        <v>0.037025</v>
       </c>
       <c r="W4" s="34" t="n">
-        <v>0</v>
+        <v>0.1481</v>
       </c>
     </row>
     <row r="5">
@@ -14365,7 +14357,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.0776</v>
+        <v>0.0146</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -14436,7 +14428,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.0776</v>
+        <v>0.0146</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -14507,7 +14499,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.0776</v>
+        <v>0.0146</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -14531,37 +14523,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="34" t="n">
-        <v>0</v>
+        <v>0.00291666666666667</v>
       </c>
       <c r="N10" s="34" t="n">
-        <v>0</v>
+        <v>0.00875</v>
       </c>
       <c r="O10" s="34" t="n">
-        <v>0</v>
+        <v>0.00291666666666667</v>
       </c>
       <c r="P10" s="34" t="n">
-        <v>0</v>
+        <v>0.00291666666666667</v>
       </c>
       <c r="Q10" s="34" t="n">
-        <v>0</v>
+        <v>0.00291666666666667</v>
       </c>
       <c r="R10" s="34" t="n">
-        <v>0</v>
+        <v>0.00875</v>
       </c>
       <c r="S10" s="34" t="n">
-        <v>0</v>
+        <v>0.00291666666666667</v>
       </c>
       <c r="T10" s="34" t="n">
-        <v>0</v>
+        <v>0.00291666666666667</v>
       </c>
       <c r="U10" s="34" t="n">
-        <v>0</v>
+        <v>0.00291666666666667</v>
       </c>
       <c r="V10" s="34" t="n">
-        <v>0</v>
+        <v>0.00875</v>
       </c>
       <c r="W10" s="34" t="n">
-        <v>0</v>
+        <v>0.035</v>
       </c>
     </row>
   </sheetData>
@@ -14662,9 +14654,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="35" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="35"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -14733,9 +14723,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="35" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="35"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -14890,7 +14878,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="36" t="n">
-        <v>0</v>
+        <v>0.0376</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -14961,7 +14949,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="36" t="n">
-        <v>0</v>
+        <v>0.0376</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -15032,7 +15020,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="36" t="n">
-        <v>0</v>
+        <v>0.0376</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -15056,37 +15044,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="36" t="n">
-        <v>0</v>
+        <v>0.00751666666666667</v>
       </c>
       <c r="N4" s="36" t="n">
-        <v>0</v>
+        <v>0.02255</v>
       </c>
       <c r="O4" s="36" t="n">
-        <v>0</v>
+        <v>0.00751666666666667</v>
       </c>
       <c r="P4" s="36" t="n">
-        <v>0</v>
+        <v>0.00751666666666667</v>
       </c>
       <c r="Q4" s="36" t="n">
-        <v>0</v>
+        <v>0.00751666666666667</v>
       </c>
       <c r="R4" s="36" t="n">
-        <v>0</v>
+        <v>0.02255</v>
       </c>
       <c r="S4" s="36" t="n">
-        <v>0</v>
+        <v>0.00751666666666667</v>
       </c>
       <c r="T4" s="36" t="n">
-        <v>0</v>
+        <v>0.00751666666666667</v>
       </c>
       <c r="U4" s="36" t="n">
-        <v>0</v>
+        <v>0.00751666666666667</v>
       </c>
       <c r="V4" s="36" t="n">
-        <v>0</v>
+        <v>0.02255</v>
       </c>
       <c r="W4" s="36" t="n">
-        <v>0</v>
+        <v>0.0902</v>
       </c>
     </row>
     <row r="5">
@@ -15288,7 +15276,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="36" t="n">
-        <v>0.0776</v>
+        <v>0.0309</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -15359,7 +15347,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="36" t="n">
-        <v>0.0776</v>
+        <v>0.0309</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -15430,7 +15418,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="36" t="n">
-        <v>0.0776</v>
+        <v>0.0309</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -15454,37 +15442,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="36" t="n">
-        <v>0</v>
+        <v>0.00618333333333333</v>
       </c>
       <c r="N10" s="36" t="n">
-        <v>0</v>
+        <v>0.01855</v>
       </c>
       <c r="O10" s="36" t="n">
-        <v>0</v>
+        <v>0.00618333333333333</v>
       </c>
       <c r="P10" s="36" t="n">
-        <v>0</v>
+        <v>0.00618333333333333</v>
       </c>
       <c r="Q10" s="36" t="n">
-        <v>0</v>
+        <v>0.00618333333333333</v>
       </c>
       <c r="R10" s="36" t="n">
-        <v>0</v>
+        <v>0.01855</v>
       </c>
       <c r="S10" s="36" t="n">
-        <v>0</v>
+        <v>0.00618333333333333</v>
       </c>
       <c r="T10" s="36" t="n">
-        <v>0</v>
+        <v>0.00618333333333333</v>
       </c>
       <c r="U10" s="36" t="n">
-        <v>0</v>
+        <v>0.00618333333333333</v>
       </c>
       <c r="V10" s="36" t="n">
-        <v>0</v>
+        <v>0.01855</v>
       </c>
       <c r="W10" s="36" t="n">
-        <v>0</v>
+        <v>0.0742</v>
       </c>
     </row>
   </sheetData>
@@ -16040,7 +16028,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="39" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -16399,7 +16387,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -16470,7 +16458,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -16541,7 +16529,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -16845,7 +16833,7 @@
         <v>31</v>
       </c>
       <c r="E2" s="41" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -16890,7 +16878,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="41" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -16935,7 +16923,7 @@
         <v>31</v>
       </c>
       <c r="E4" s="41" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -17091,7 +17079,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0</v>
+        <v>0.0728</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -17162,7 +17150,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>0</v>
+        <v>0.0728</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -17233,7 +17221,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0</v>
+        <v>0.0728</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -17257,37 +17245,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0</v>
+        <v>0.0145583333333333</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0</v>
+        <v>0.043675</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>0</v>
+        <v>0.0145583333333333</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>0</v>
+        <v>0.0145583333333333</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0</v>
+        <v>0.0145583333333333</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0</v>
+        <v>0.043675</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0</v>
+        <v>0.0145583333333333</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>0</v>
+        <v>0.0145583333333333</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>0</v>
+        <v>0.0145583333333333</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0</v>
+        <v>0.043675</v>
       </c>
       <c r="W4" s="5" t="n">
-        <v>0</v>
+        <v>0.1747</v>
       </c>
     </row>
     <row r="5">
@@ -17489,7 +17477,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0776</v>
+        <v>0.0999</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -17560,7 +17548,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0776</v>
+        <v>0.0999</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -17631,7 +17619,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.0776</v>
+        <v>0.0999</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -17655,37 +17643,37 @@
         <v>0.0197</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>0</v>
+        <v>0.0199833333333333</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0</v>
+        <v>0.05995</v>
       </c>
       <c r="O10" s="5" t="n">
-        <v>0</v>
+        <v>0.0199833333333333</v>
       </c>
       <c r="P10" s="5" t="n">
-        <v>0</v>
+        <v>0.0199833333333333</v>
       </c>
       <c r="Q10" s="5" t="n">
-        <v>0</v>
+        <v>0.0199833333333333</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>0</v>
+        <v>0.05995</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>0</v>
+        <v>0.0199833333333333</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>0</v>
+        <v>0.0199833333333333</v>
       </c>
       <c r="U10" s="5" t="n">
-        <v>0</v>
+        <v>0.0199833333333333</v>
       </c>
       <c r="V10" s="5" t="n">
-        <v>0</v>
+        <v>0.05995</v>
       </c>
       <c r="W10" s="5" t="n">
-        <v>0</v>
+        <v>0.2398</v>
       </c>
     </row>
   </sheetData>
@@ -17787,7 +17775,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0</v>
+        <v>0.0168</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -17858,7 +17846,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0</v>
+        <v>0.0168</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -17929,7 +17917,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0</v>
+        <v>0.0168</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -17953,37 +17941,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>0</v>
+        <v>0.00335833333333333</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0</v>
+        <v>0.010075</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0</v>
+        <v>0.00335833333333333</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0</v>
+        <v>0.00335833333333333</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0</v>
+        <v>0.00335833333333333</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0</v>
+        <v>0.010075</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0</v>
+        <v>0.00335833333333333</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0</v>
+        <v>0.00335833333333333</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0</v>
+        <v>0.00335833333333333</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0</v>
+        <v>0.010075</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0</v>
+        <v>0.0403</v>
       </c>
     </row>
     <row r="5">
@@ -18118,7 +18106,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -18189,7 +18177,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -18260,7 +18248,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -18743,7 +18731,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.0776</v>
+        <v>0.0122</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -18814,7 +18802,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>0.0776</v>
+        <v>0.0122</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -18885,7 +18873,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>0.0776</v>
+        <v>0.0122</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -18909,37 +18897,37 @@
         <v>0</v>
       </c>
       <c r="M9" s="7" t="n">
-        <v>0</v>
+        <v>0.00244166666666667</v>
       </c>
       <c r="N9" s="7" t="n">
-        <v>0</v>
+        <v>0.007325</v>
       </c>
       <c r="O9" s="7" t="n">
-        <v>0</v>
+        <v>0.00244166666666667</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>0</v>
+        <v>0.00244166666666667</v>
       </c>
       <c r="Q9" s="7" t="n">
-        <v>0</v>
+        <v>0.00244166666666667</v>
       </c>
       <c r="R9" s="7" t="n">
-        <v>0</v>
+        <v>0.007325</v>
       </c>
       <c r="S9" s="7" t="n">
-        <v>0</v>
+        <v>0.00244166666666667</v>
       </c>
       <c r="T9" s="7" t="n">
-        <v>0</v>
+        <v>0.00244166666666667</v>
       </c>
       <c r="U9" s="7" t="n">
-        <v>0</v>
+        <v>0.00244166666666667</v>
       </c>
       <c r="V9" s="7" t="n">
-        <v>0</v>
+        <v>0.007325</v>
       </c>
       <c r="W9" s="7" t="n">
-        <v>0</v>
+        <v>0.0293</v>
       </c>
     </row>
   </sheetData>
@@ -19040,9 +19028,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="8"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -19099,9 +19085,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="8"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>

--- a/outputs/SORs/SOR Testing_IPS Clutches & Brakes Division.xlsx
+++ b/outputs/SORs/SOR Testing_IPS Clutches & Brakes Division.xlsx
@@ -42,17 +42,20 @@
     <sheet name="Warren Michigan" sheetId="34" state="visible" r:id="rId34"/>
     <sheet name="West Chester Pennsylvania" sheetId="35" state="visible" r:id="rId35"/>
     <sheet name="Wichita Falls Texas" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="Correggio Italy" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="Hertfordshire United Kingdom" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="Silvestre Terrazas, Chihuahua " sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="Belmont Western Australia" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="Erie Pennsylvania" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="Changzhou Jintan China" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="Correggio Italy" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="Hertfordshire United Kingdom" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="Hyderabad India" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="Shanghai Xuhui China" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="Silvestre Terrazas, Chihuahua " sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="Belmont Western Australia" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="Erie Pennsylvania" sheetId="44" state="visible" r:id="rId44"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -255,10 +258,19 @@
     <t xml:space="preserve">Wichita Falls Texas</t>
   </si>
   <si>
+    <t xml:space="preserve">Changzhou Jintan China</t>
+  </si>
+  <si>
     <t xml:space="preserve">Correggio Italy</t>
   </si>
   <si>
     <t xml:space="preserve">Hertfordshire United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyderabad India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shanghai Xuhui China</t>
   </si>
   <si>
     <t xml:space="preserve">Silvestre Terrazas, Chihuahua Mexico Aerospace</t>
@@ -274,7 +286,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="41">
+  <numFmts count="44">
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -316,6 +328,9 @@
     <numFmt numFmtId="203" formatCode="0.0%"/>
     <numFmt numFmtId="204" formatCode="0.0%"/>
     <numFmt numFmtId="205" formatCode="0.0%"/>
+    <numFmt numFmtId="206" formatCode="0.0%"/>
+    <numFmt numFmtId="207" formatCode="0.0%"/>
+    <numFmt numFmtId="208" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -351,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -394,6 +409,9 @@
     <xf numFmtId="203" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="204" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="205" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="206" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="207" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="208" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -772,7 +790,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.1282</v>
+        <v>0.1739</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -843,7 +861,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.1282</v>
+        <v>0.1739</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -914,7 +932,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.1282</v>
+        <v>0.1739</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -938,37 +956,37 @@
         <v>0.0455</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0.0256416666666667</v>
+        <v>0.0476</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>0.076925</v>
+        <v>0.1364</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.0256416666666667</v>
+        <v>0.0289833333333333</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0.0256416666666667</v>
+        <v>0.0289833333333333</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0.0256416666666667</v>
+        <v>0.0289833333333333</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.076925</v>
+        <v>0.08695</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0.0256416666666667</v>
+        <v>0.0289833333333333</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0.0256416666666667</v>
+        <v>0.0289833333333333</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0.0256416666666667</v>
+        <v>0.0289833333333333</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0.076925</v>
+        <v>0.08695</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0.3077</v>
+        <v>0.3478</v>
       </c>
     </row>
     <row r="5">
@@ -1109,7 +1127,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.0391</v>
+        <v>0.0392</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -1180,7 +1198,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.0391</v>
+        <v>0.0392</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -1251,7 +1269,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.0391</v>
+        <v>0.0392</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -1275,37 +1293,37 @@
         <v>0</v>
       </c>
       <c r="M9" s="1" t="n">
-        <v>0.00781666666666667</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1" t="n">
-        <v>0.02345</v>
+        <v>0.04</v>
       </c>
       <c r="O9" s="1" t="n">
-        <v>0.00781666666666667</v>
+        <v>0.00653333333333333</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>0.00781666666666667</v>
+        <v>0.00653333333333333</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>0.00781666666666667</v>
+        <v>0.00653333333333333</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0.02345</v>
+        <v>0.0196</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>0.00781666666666667</v>
+        <v>0.00653333333333333</v>
       </c>
       <c r="T9" s="1" t="n">
-        <v>0.00781666666666667</v>
+        <v>0.00653333333333333</v>
       </c>
       <c r="U9" s="1" t="n">
-        <v>0.00781666666666667</v>
+        <v>0.00653333333333333</v>
       </c>
       <c r="V9" s="1" t="n">
-        <v>0.02345</v>
+        <v>0.0196</v>
       </c>
       <c r="W9" s="1" t="n">
-        <v>0.0938</v>
+        <v>0.0784</v>
       </c>
     </row>
   </sheetData>
@@ -1620,7 +1638,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="10" t="n">
-        <v>0.0281</v>
+        <v>0.028</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -1691,7 +1709,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="10" t="n">
-        <v>0.0281</v>
+        <v>0.028</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -1762,7 +1780,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="10" t="n">
-        <v>0.0281</v>
+        <v>0.028</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -1786,37 +1804,37 @@
         <v>0</v>
       </c>
       <c r="M7" s="10" t="n">
-        <v>0.00561666666666667</v>
+        <v>0</v>
       </c>
       <c r="N7" s="10" t="n">
-        <v>0.01685</v>
+        <v>0</v>
       </c>
       <c r="O7" s="10" t="n">
-        <v>0.00561666666666667</v>
+        <v>0.00466666666666667</v>
       </c>
       <c r="P7" s="10" t="n">
-        <v>0.00561666666666667</v>
+        <v>0.00466666666666667</v>
       </c>
       <c r="Q7" s="10" t="n">
-        <v>0.00561666666666667</v>
+        <v>0.00466666666666667</v>
       </c>
       <c r="R7" s="10" t="n">
-        <v>0.01685</v>
+        <v>0.014</v>
       </c>
       <c r="S7" s="10" t="n">
-        <v>0.00561666666666667</v>
+        <v>0.00466666666666667</v>
       </c>
       <c r="T7" s="10" t="n">
-        <v>0.00561666666666667</v>
+        <v>0.00466666666666667</v>
       </c>
       <c r="U7" s="10" t="n">
-        <v>0.00561666666666667</v>
+        <v>0.00466666666666667</v>
       </c>
       <c r="V7" s="10" t="n">
-        <v>0.01685</v>
+        <v>0.014</v>
       </c>
       <c r="W7" s="10" t="n">
-        <v>0.0674</v>
+        <v>0.056</v>
       </c>
     </row>
   </sheetData>
@@ -1918,7 +1936,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="11" t="n">
-        <v>0.0181</v>
+        <v>0.0274</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -1989,7 +2007,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="11" t="n">
-        <v>0.0181</v>
+        <v>0.0274</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2060,7 +2078,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>0.0181</v>
+        <v>0.0274</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2084,37 +2102,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="11" t="n">
-        <v>0.00361666666666667</v>
+        <v>0.0094</v>
       </c>
       <c r="N4" s="11" t="n">
-        <v>0.01085</v>
+        <v>0.0187</v>
       </c>
       <c r="O4" s="11" t="n">
-        <v>0.00361666666666667</v>
+        <v>0.00456666666666667</v>
       </c>
       <c r="P4" s="11" t="n">
-        <v>0.00361666666666667</v>
+        <v>0.00456666666666667</v>
       </c>
       <c r="Q4" s="11" t="n">
-        <v>0.00361666666666667</v>
+        <v>0.00456666666666667</v>
       </c>
       <c r="R4" s="11" t="n">
-        <v>0.01085</v>
+        <v>0.0137</v>
       </c>
       <c r="S4" s="11" t="n">
-        <v>0.00361666666666667</v>
+        <v>0.00456666666666667</v>
       </c>
       <c r="T4" s="11" t="n">
-        <v>0.00361666666666667</v>
+        <v>0.00456666666666667</v>
       </c>
       <c r="U4" s="11" t="n">
-        <v>0.00361666666666667</v>
+        <v>0.00456666666666667</v>
       </c>
       <c r="V4" s="11" t="n">
-        <v>0.01085</v>
+        <v>0.0137</v>
       </c>
       <c r="W4" s="11" t="n">
-        <v>0.0434</v>
+        <v>0.0548</v>
       </c>
     </row>
     <row r="5">
@@ -2245,7 +2263,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="11" t="n">
-        <v>0.0505</v>
+        <v>0.0506</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -2316,7 +2334,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="11" t="n">
-        <v>0.0505</v>
+        <v>0.0506</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -2387,7 +2405,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>0.0505</v>
+        <v>0.0506</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -2411,37 +2429,37 @@
         <v>0</v>
       </c>
       <c r="M9" s="11" t="n">
-        <v>0.0101</v>
+        <v>0</v>
       </c>
       <c r="N9" s="11" t="n">
-        <v>0.0303</v>
+        <v>0.0103</v>
       </c>
       <c r="O9" s="11" t="n">
-        <v>0.0101</v>
+        <v>0.00843333333333333</v>
       </c>
       <c r="P9" s="11" t="n">
-        <v>0.0101</v>
+        <v>0.00843333333333333</v>
       </c>
       <c r="Q9" s="11" t="n">
-        <v>0.0101</v>
+        <v>0.00843333333333333</v>
       </c>
       <c r="R9" s="11" t="n">
-        <v>0.0303</v>
+        <v>0.0253</v>
       </c>
       <c r="S9" s="11" t="n">
-        <v>0.0101</v>
+        <v>0.00843333333333333</v>
       </c>
       <c r="T9" s="11" t="n">
-        <v>0.0101</v>
+        <v>0.00843333333333333</v>
       </c>
       <c r="U9" s="11" t="n">
-        <v>0.0101</v>
+        <v>0.00843333333333333</v>
       </c>
       <c r="V9" s="11" t="n">
-        <v>0.0303</v>
+        <v>0.0253</v>
       </c>
       <c r="W9" s="11" t="n">
-        <v>0.1212</v>
+        <v>0.1012</v>
       </c>
     </row>
   </sheetData>
@@ -3163,9 +3181,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="13" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="13"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3234,9 +3250,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="13" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="13"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3289,77 +3303,6 @@
         <v>0</v>
       </c>
       <c r="W3" s="13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3462,7 +3405,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="14" t="n">
-        <v>0.0833</v>
+        <v>0.0826</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3533,7 +3476,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="14" t="n">
-        <v>0.0833</v>
+        <v>0.0826</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3604,7 +3547,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="14" t="n">
-        <v>0.0833</v>
+        <v>0.0826</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3628,37 +3571,37 @@
         <v>0.04</v>
       </c>
       <c r="M4" s="14" t="n">
-        <v>0.0166583333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="14" t="n">
-        <v>0.049975</v>
+        <v>0.0405</v>
       </c>
       <c r="O4" s="14" t="n">
-        <v>0.0166583333333333</v>
+        <v>0.0137666666666667</v>
       </c>
       <c r="P4" s="14" t="n">
-        <v>0.0166583333333333</v>
+        <v>0.0137666666666667</v>
       </c>
       <c r="Q4" s="14" t="n">
-        <v>0.0166583333333333</v>
+        <v>0.0137666666666667</v>
       </c>
       <c r="R4" s="14" t="n">
-        <v>0.049975</v>
+        <v>0.0413</v>
       </c>
       <c r="S4" s="14" t="n">
-        <v>0.0166583333333333</v>
+        <v>0.0137666666666667</v>
       </c>
       <c r="T4" s="14" t="n">
-        <v>0.0166583333333333</v>
+        <v>0.0137666666666667</v>
       </c>
       <c r="U4" s="14" t="n">
-        <v>0.0166583333333333</v>
+        <v>0.0137666666666667</v>
       </c>
       <c r="V4" s="14" t="n">
-        <v>0.049975</v>
+        <v>0.0413</v>
       </c>
       <c r="W4" s="14" t="n">
-        <v>0.1999</v>
+        <v>0.1652</v>
       </c>
     </row>
     <row r="5">
@@ -3808,11 +3751,9 @@
       <c r="L7" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="14" t="n">
-        <v>0.333333333333333</v>
-      </c>
+      <c r="M7" s="14"/>
       <c r="N7" s="14" t="n">
-        <v>0.333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="O7" s="14" t="n">
         <v>0.333333333333333</v>
@@ -3856,7 +3797,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0</v>
+        <v>0.1282</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3927,7 +3868,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0</v>
+        <v>0.1282</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3998,7 +3939,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="14" t="n">
-        <v>0</v>
+        <v>0.1282</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -4022,37 +3963,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="14" t="n">
-        <v>0</v>
+        <v>0.1429</v>
       </c>
       <c r="N10" s="14" t="n">
-        <v>0</v>
+        <v>0.1299</v>
       </c>
       <c r="O10" s="14" t="n">
-        <v>0</v>
+        <v>0.0213666666666667</v>
       </c>
       <c r="P10" s="14" t="n">
-        <v>0</v>
+        <v>0.0213666666666667</v>
       </c>
       <c r="Q10" s="14" t="n">
-        <v>0</v>
+        <v>0.0213666666666667</v>
       </c>
       <c r="R10" s="14" t="n">
-        <v>0</v>
+        <v>0.0641</v>
       </c>
       <c r="S10" s="14" t="n">
-        <v>0</v>
+        <v>0.0213666666666667</v>
       </c>
       <c r="T10" s="14" t="n">
-        <v>0</v>
+        <v>0.0213666666666667</v>
       </c>
       <c r="U10" s="14" t="n">
-        <v>0</v>
+        <v>0.0213666666666667</v>
       </c>
       <c r="V10" s="14" t="n">
-        <v>0</v>
+        <v>0.0641</v>
       </c>
       <c r="W10" s="14" t="n">
-        <v>0</v>
+        <v>0.2564</v>
       </c>
     </row>
   </sheetData>
@@ -5158,7 +5099,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="18" t="n">
-        <v>0.0216</v>
+        <v>0.0432</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5229,7 +5170,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="18" t="n">
-        <v>0.0216</v>
+        <v>0.0432</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5300,7 +5241,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="18" t="n">
-        <v>0.0216</v>
+        <v>0.0432</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5324,37 +5265,37 @@
         <v>0.0217</v>
       </c>
       <c r="M4" s="18" t="n">
-        <v>0.00431666666666667</v>
+        <v>0.0217</v>
       </c>
       <c r="N4" s="18" t="n">
-        <v>0.01295</v>
+        <v>0.0432</v>
       </c>
       <c r="O4" s="18" t="n">
-        <v>0.00431666666666667</v>
+        <v>0.0072</v>
       </c>
       <c r="P4" s="18" t="n">
-        <v>0.00431666666666667</v>
+        <v>0.0072</v>
       </c>
       <c r="Q4" s="18" t="n">
-        <v>0.00431666666666667</v>
+        <v>0.0072</v>
       </c>
       <c r="R4" s="18" t="n">
-        <v>0.01295</v>
+        <v>0.0216</v>
       </c>
       <c r="S4" s="18" t="n">
-        <v>0.00431666666666667</v>
+        <v>0.0072</v>
       </c>
       <c r="T4" s="18" t="n">
-        <v>0.00431666666666667</v>
+        <v>0.0072</v>
       </c>
       <c r="U4" s="18" t="n">
-        <v>0.00431666666666667</v>
+        <v>0.0072</v>
       </c>
       <c r="V4" s="18" t="n">
-        <v>0.01295</v>
+        <v>0.0216</v>
       </c>
       <c r="W4" s="18" t="n">
-        <v>0.0518</v>
+        <v>0.0864</v>
       </c>
     </row>
     <row r="5">
@@ -5489,7 +5430,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="18" t="n">
-        <v>0.0187</v>
+        <v>0.0186</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -5560,7 +5501,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="18" t="n">
-        <v>0.0187</v>
+        <v>0.0186</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -5631,7 +5572,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="18" t="n">
-        <v>0.0187</v>
+        <v>0.0186</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -5655,37 +5596,37 @@
         <v>0</v>
       </c>
       <c r="M9" s="18" t="n">
-        <v>0.00374166666666667</v>
+        <v>0</v>
       </c>
       <c r="N9" s="18" t="n">
-        <v>0.011225</v>
+        <v>0</v>
       </c>
       <c r="O9" s="18" t="n">
-        <v>0.00374166666666667</v>
+        <v>0.0031</v>
       </c>
       <c r="P9" s="18" t="n">
-        <v>0.00374166666666667</v>
+        <v>0.0031</v>
       </c>
       <c r="Q9" s="18" t="n">
-        <v>0.00374166666666667</v>
+        <v>0.0031</v>
       </c>
       <c r="R9" s="18" t="n">
-        <v>0.011225</v>
+        <v>0.0093</v>
       </c>
       <c r="S9" s="18" t="n">
-        <v>0.00374166666666667</v>
+        <v>0.0031</v>
       </c>
       <c r="T9" s="18" t="n">
-        <v>0.00374166666666667</v>
+        <v>0.0031</v>
       </c>
       <c r="U9" s="18" t="n">
-        <v>0.00374166666666667</v>
+        <v>0.0031</v>
       </c>
       <c r="V9" s="18" t="n">
-        <v>0.011225</v>
+        <v>0.0093</v>
       </c>
       <c r="W9" s="18" t="n">
-        <v>0.0449</v>
+        <v>0.0372</v>
       </c>
     </row>
   </sheetData>
@@ -6195,7 +6136,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0351</v>
+        <v>0.0352</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6266,7 +6207,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.0351</v>
+        <v>0.0352</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6337,7 +6278,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.0351</v>
+        <v>0.0352</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6361,37 +6302,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0.00701666666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>0.02105</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0.00701666666666667</v>
+        <v>0.00586666666666667</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>0.00701666666666667</v>
+        <v>0.00586666666666667</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0.00701666666666667</v>
+        <v>0.00586666666666667</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.02105</v>
+        <v>0.0176</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>0.00701666666666667</v>
+        <v>0.00586666666666667</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>0.00701666666666667</v>
+        <v>0.00586666666666667</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.00701666666666667</v>
+        <v>0.00586666666666667</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>0.02105</v>
+        <v>0.0176</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.0842</v>
+        <v>0.0704</v>
       </c>
     </row>
     <row r="5">
@@ -6559,11 +6500,9 @@
       <c r="L7" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="M7" s="2" t="n">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="O7" s="2" t="n">
         <v>0.666666666666667</v>
@@ -6607,7 +6546,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.067</v>
+        <v>0.0899</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -6678,7 +6617,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.067</v>
+        <v>0.0899</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -6749,7 +6688,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.067</v>
+        <v>0.0899</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -6773,37 +6712,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>0.0134</v>
+        <v>0.0233</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>0.0402</v>
+        <v>0.0462</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>0.0134</v>
+        <v>0.0149833333333333</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>0.0134</v>
+        <v>0.0149833333333333</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0.0134</v>
+        <v>0.0149833333333333</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0402</v>
+        <v>0.04495</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>0.0134</v>
+        <v>0.0149833333333333</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>0.0134</v>
+        <v>0.0149833333333333</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.0134</v>
+        <v>0.0149833333333333</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>0.0402</v>
+        <v>0.04495</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.1608</v>
+        <v>0.1798</v>
       </c>
     </row>
   </sheetData>
@@ -6905,7 +6844,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="20" t="n">
-        <v>0.0578</v>
+        <v>0.0571</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6976,7 +6915,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="20" t="n">
-        <v>0.0578</v>
+        <v>0.0571</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -7047,7 +6986,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="20" t="n">
-        <v>0.0578</v>
+        <v>0.0571</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -7071,37 +7010,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="20" t="n">
-        <v>0.0115583333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="20" t="n">
-        <v>0.034675</v>
+        <v>0.0556</v>
       </c>
       <c r="O4" s="20" t="n">
-        <v>0.0115583333333333</v>
+        <v>0.00951666666666667</v>
       </c>
       <c r="P4" s="20" t="n">
-        <v>0.0115583333333333</v>
+        <v>0.00951666666666667</v>
       </c>
       <c r="Q4" s="20" t="n">
-        <v>0.0115583333333333</v>
+        <v>0.00951666666666667</v>
       </c>
       <c r="R4" s="20" t="n">
-        <v>0.034675</v>
+        <v>0.02855</v>
       </c>
       <c r="S4" s="20" t="n">
-        <v>0.0115583333333333</v>
+        <v>0.00951666666666667</v>
       </c>
       <c r="T4" s="20" t="n">
-        <v>0.0115583333333333</v>
+        <v>0.00951666666666667</v>
       </c>
       <c r="U4" s="20" t="n">
-        <v>0.0115583333333333</v>
+        <v>0.00951666666666667</v>
       </c>
       <c r="V4" s="20" t="n">
-        <v>0.034675</v>
+        <v>0.02855</v>
       </c>
       <c r="W4" s="20" t="n">
-        <v>0.1387</v>
+        <v>0.1142</v>
       </c>
     </row>
     <row r="5">
@@ -7118,7 +7057,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="20" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -7177,7 +7116,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="20" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -7248,7 +7187,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="20" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -7268,37 +7207,37 @@
         <v>1</v>
       </c>
       <c r="M7" s="20" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="N7" s="20" t="n">
         <v>0.6</v>
       </c>
       <c r="O7" s="20" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="P7" s="20" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="Q7" s="20" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="R7" s="20" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="S7" s="20" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="T7" s="20" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="U7" s="20" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="V7" s="20" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="W7" s="20" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -8242,7 +8181,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="23" t="n">
-        <v>0.0472</v>
+        <v>0.0468</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -8313,7 +8252,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="23" t="n">
-        <v>0.0472</v>
+        <v>0.0468</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -8384,7 +8323,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="23" t="n">
-        <v>0.0472</v>
+        <v>0.0468</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -8405,40 +8344,40 @@
         <v>0</v>
       </c>
       <c r="L4" s="23" t="n">
-        <v>0.0244</v>
+        <v>0.0238</v>
       </c>
       <c r="M4" s="23" t="n">
-        <v>0.00944166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="23" t="n">
-        <v>0.028325</v>
+        <v>0.0236</v>
       </c>
       <c r="O4" s="23" t="n">
-        <v>0.00944166666666667</v>
+        <v>0.0078</v>
       </c>
       <c r="P4" s="23" t="n">
-        <v>0.00944166666666667</v>
+        <v>0.0078</v>
       </c>
       <c r="Q4" s="23" t="n">
-        <v>0.00944166666666667</v>
+        <v>0.0078</v>
       </c>
       <c r="R4" s="23" t="n">
-        <v>0.028325</v>
+        <v>0.0234</v>
       </c>
       <c r="S4" s="23" t="n">
-        <v>0.00944166666666667</v>
+        <v>0.0078</v>
       </c>
       <c r="T4" s="23" t="n">
-        <v>0.00944166666666667</v>
+        <v>0.0078</v>
       </c>
       <c r="U4" s="23" t="n">
-        <v>0.00944166666666667</v>
+        <v>0.0078</v>
       </c>
       <c r="V4" s="23" t="n">
-        <v>0.028325</v>
+        <v>0.0234</v>
       </c>
       <c r="W4" s="23" t="n">
-        <v>0.1133</v>
+        <v>0.0936</v>
       </c>
     </row>
     <row r="5">
@@ -8640,7 +8579,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="23" t="n">
-        <v>0.1446</v>
+        <v>0.1601</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -8711,7 +8650,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="23" t="n">
-        <v>0.1446</v>
+        <v>0.1601</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -8782,7 +8721,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="23" t="n">
-        <v>0.1446</v>
+        <v>0.1601</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -8800,43 +8739,43 @@
         <v>0.0682</v>
       </c>
       <c r="K10" s="23" t="n">
-        <v>0.0414</v>
+        <v>0.0417</v>
       </c>
       <c r="L10" s="23" t="n">
-        <v>0.0355</v>
+        <v>0.0357</v>
       </c>
       <c r="M10" s="23" t="n">
-        <v>0.0289166666666667</v>
+        <v>0.0145</v>
       </c>
       <c r="N10" s="23" t="n">
-        <v>0.08675</v>
+        <v>0.0924</v>
       </c>
       <c r="O10" s="23" t="n">
-        <v>0.0289166666666667</v>
+        <v>0.0266833333333333</v>
       </c>
       <c r="P10" s="23" t="n">
-        <v>0.0289166666666667</v>
+        <v>0.0266833333333333</v>
       </c>
       <c r="Q10" s="23" t="n">
-        <v>0.0289166666666667</v>
+        <v>0.0266833333333333</v>
       </c>
       <c r="R10" s="23" t="n">
-        <v>0.08675</v>
+        <v>0.08005</v>
       </c>
       <c r="S10" s="23" t="n">
-        <v>0.0289166666666667</v>
+        <v>0.0266833333333333</v>
       </c>
       <c r="T10" s="23" t="n">
-        <v>0.0289166666666667</v>
+        <v>0.0266833333333333</v>
       </c>
       <c r="U10" s="23" t="n">
-        <v>0.0289166666666667</v>
+        <v>0.0266833333333333</v>
       </c>
       <c r="V10" s="23" t="n">
-        <v>0.08675</v>
+        <v>0.08005</v>
       </c>
       <c r="W10" s="23" t="n">
-        <v>0.347</v>
+        <v>0.3202</v>
       </c>
     </row>
   </sheetData>
@@ -10099,12 +10038,8 @@
       </c>
       <c r="K7" s="27"/>
       <c r="L7" s="27"/>
-      <c r="M7" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="27" t="n">
-        <v>0</v>
-      </c>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
       <c r="O7" s="27" t="n">
         <v>0</v>
       </c>
@@ -10232,7 +10167,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="28" t="n">
-        <v>0.0855</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -10303,7 +10238,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="28" t="n">
-        <v>0.0855</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -10374,61 +10309,51 @@
         <v>26</v>
       </c>
       <c r="E4" s="28" t="n">
-        <v>0.0855</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="28" t="n">
-        <v>0.0417</v>
+        <v>1</v>
       </c>
       <c r="H4" s="28" t="n">
         <v>0</v>
       </c>
-      <c r="I4" s="28" t="n">
-        <v>0.0435</v>
-      </c>
+      <c r="I4" s="28"/>
       <c r="J4" s="28" t="n">
-        <v>0.0844</v>
-      </c>
-      <c r="K4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="28" t="n">
-        <v>0.0171</v>
-      </c>
-      <c r="N4" s="28" t="n">
-        <v>0.0513</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
       <c r="O4" s="28" t="n">
-        <v>0.0171</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="P4" s="28" t="n">
-        <v>0.0171</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="Q4" s="28" t="n">
-        <v>0.0171</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="R4" s="28" t="n">
-        <v>0.0513</v>
+        <v>0.5</v>
       </c>
       <c r="S4" s="28" t="n">
-        <v>0.0171</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="T4" s="28" t="n">
-        <v>0.0171</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="U4" s="28" t="n">
-        <v>0.0171</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="V4" s="28" t="n">
-        <v>0.0513</v>
+        <v>0.5</v>
       </c>
       <c r="W4" s="28" t="n">
-        <v>0.2052</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -10554,9 +10479,7 @@
       <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="28" t="n">
-        <v>0</v>
-      </c>
+      <c r="E7" s="28"/>
       <c r="F7" t="s">
         <v>27</v>
       </c>
@@ -10625,9 +10548,7 @@
       <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="28" t="n">
-        <v>0</v>
-      </c>
+      <c r="E8" s="28"/>
       <c r="F8" t="s">
         <v>28</v>
       </c>
@@ -10681,77 +10602,6 @@
       </c>
       <c r="W8" s="28" t="n">
         <v>0.03582</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="28" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11151,7 +11001,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.2273</v>
+        <v>0.2326</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11222,7 +11072,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.2273</v>
+        <v>0.2326</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11293,7 +11143,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.2273</v>
+        <v>0.2326</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -11317,37 +11167,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0.0454583333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0.136375</v>
+        <v>0</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0.0454583333333333</v>
+        <v>0.0387666666666667</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0.0454583333333333</v>
+        <v>0.0387666666666667</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.0454583333333333</v>
+        <v>0.0387666666666667</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0.136375</v>
+        <v>0.1163</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0.0454583333333333</v>
+        <v>0.0387666666666667</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0.0454583333333333</v>
+        <v>0.0387666666666667</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0.0454583333333333</v>
+        <v>0.0387666666666667</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0.136375</v>
+        <v>0.1163</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>0.5455</v>
+        <v>0.4652</v>
       </c>
     </row>
   </sheetData>
@@ -11449,7 +11299,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="30" t="n">
-        <v>0.0407</v>
+        <v>0.0408</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11520,7 +11370,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="30" t="n">
-        <v>0.0407</v>
+        <v>0.0408</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11591,7 +11441,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="30" t="n">
-        <v>0.0407</v>
+        <v>0.0408</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -11615,37 +11465,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="30" t="n">
-        <v>0.00814166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="30" t="n">
-        <v>0.024425</v>
+        <v>0.0417</v>
       </c>
       <c r="O4" s="30" t="n">
-        <v>0.00814166666666667</v>
+        <v>0.0068</v>
       </c>
       <c r="P4" s="30" t="n">
-        <v>0.00814166666666667</v>
+        <v>0.0068</v>
       </c>
       <c r="Q4" s="30" t="n">
-        <v>0.00814166666666667</v>
+        <v>0.0068</v>
       </c>
       <c r="R4" s="30" t="n">
-        <v>0.024425</v>
+        <v>0.0204</v>
       </c>
       <c r="S4" s="30" t="n">
-        <v>0.00814166666666667</v>
+        <v>0.0068</v>
       </c>
       <c r="T4" s="30" t="n">
-        <v>0.00814166666666667</v>
+        <v>0.0068</v>
       </c>
       <c r="U4" s="30" t="n">
-        <v>0.00814166666666667</v>
+        <v>0.0068</v>
       </c>
       <c r="V4" s="30" t="n">
-        <v>0.024425</v>
+        <v>0.0204</v>
       </c>
       <c r="W4" s="30" t="n">
-        <v>0.0977</v>
+        <v>0.0816</v>
       </c>
     </row>
     <row r="5">
@@ -11873,7 +11723,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="31" t="n">
-        <v>0.0312</v>
+        <v>0.0465</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11944,7 +11794,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="31" t="n">
-        <v>0.0312</v>
+        <v>0.0465</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -12015,7 +11865,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="31" t="n">
-        <v>0.0312</v>
+        <v>0.0465</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -12039,37 +11889,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="31" t="n">
-        <v>0.00624166666666667</v>
+        <v>0.0149</v>
       </c>
       <c r="N4" s="31" t="n">
-        <v>0.018725</v>
+        <v>0.0303</v>
       </c>
       <c r="O4" s="31" t="n">
-        <v>0.00624166666666667</v>
+        <v>0.00775</v>
       </c>
       <c r="P4" s="31" t="n">
-        <v>0.00624166666666667</v>
+        <v>0.00775</v>
       </c>
       <c r="Q4" s="31" t="n">
-        <v>0.00624166666666667</v>
+        <v>0.00775</v>
       </c>
       <c r="R4" s="31" t="n">
-        <v>0.018725</v>
+        <v>0.02325</v>
       </c>
       <c r="S4" s="31" t="n">
-        <v>0.00624166666666667</v>
+        <v>0.00775</v>
       </c>
       <c r="T4" s="31" t="n">
-        <v>0.00624166666666667</v>
+        <v>0.00775</v>
       </c>
       <c r="U4" s="31" t="n">
-        <v>0.00624166666666667</v>
+        <v>0.00775</v>
       </c>
       <c r="V4" s="31" t="n">
-        <v>0.018725</v>
+        <v>0.02325</v>
       </c>
       <c r="W4" s="31" t="n">
-        <v>0.0749</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="5">
@@ -12219,9 +12069,7 @@
       <c r="L7" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="M7" s="31"/>
       <c r="N7" s="31" t="n">
         <v>0</v>
       </c>
@@ -12267,7 +12115,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="31" t="n">
-        <v>0.0189</v>
+        <v>0.0379</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -12338,7 +12186,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="31" t="n">
-        <v>0.0189</v>
+        <v>0.0379</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -12409,7 +12257,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="31" t="n">
-        <v>0.0189</v>
+        <v>0.0379</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -12433,37 +12281,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="31" t="n">
-        <v>0.00378333333333333</v>
+        <v>0.0189</v>
       </c>
       <c r="N10" s="31" t="n">
-        <v>0.01135</v>
+        <v>0.0189</v>
       </c>
       <c r="O10" s="31" t="n">
-        <v>0.00378333333333333</v>
+        <v>0.00631666666666667</v>
       </c>
       <c r="P10" s="31" t="n">
-        <v>0.00378333333333333</v>
+        <v>0.00631666666666667</v>
       </c>
       <c r="Q10" s="31" t="n">
-        <v>0.00378333333333333</v>
+        <v>0.00631666666666667</v>
       </c>
       <c r="R10" s="31" t="n">
-        <v>0.01135</v>
+        <v>0.01895</v>
       </c>
       <c r="S10" s="31" t="n">
-        <v>0.00378333333333333</v>
+        <v>0.00631666666666667</v>
       </c>
       <c r="T10" s="31" t="n">
-        <v>0.00378333333333333</v>
+        <v>0.00631666666666667</v>
       </c>
       <c r="U10" s="31" t="n">
-        <v>0.00378333333333333</v>
+        <v>0.00631666666666667</v>
       </c>
       <c r="V10" s="31" t="n">
-        <v>0.01135</v>
+        <v>0.01895</v>
       </c>
       <c r="W10" s="31" t="n">
-        <v>0.0454</v>
+        <v>0.0758</v>
       </c>
     </row>
   </sheetData>
@@ -12565,7 +12413,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="32" t="n">
-        <v>0.0205</v>
+        <v>0.0337</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -12636,7 +12484,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="32" t="n">
-        <v>0.0205</v>
+        <v>0.0337</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -12707,13 +12555,13 @@
         <v>26</v>
       </c>
       <c r="E4" s="32" t="n">
-        <v>0.0205</v>
+        <v>0.0337</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="32" t="n">
-        <v>0.0068</v>
+        <v>0.0067</v>
       </c>
       <c r="H4" s="32" t="n">
         <v>0</v>
@@ -12722,7 +12570,7 @@
         <v>0.0068</v>
       </c>
       <c r="J4" s="32" t="n">
-        <v>0.0136</v>
+        <v>0.0134</v>
       </c>
       <c r="K4" s="32" t="n">
         <v>0</v>
@@ -12731,37 +12579,37 @@
         <v>0.0068</v>
       </c>
       <c r="M4" s="32" t="n">
-        <v>0.0041</v>
+        <v>0.0136</v>
       </c>
       <c r="N4" s="32" t="n">
-        <v>0.0123</v>
+        <v>0.0203</v>
       </c>
       <c r="O4" s="32" t="n">
-        <v>0.0041</v>
+        <v>0.00561666666666667</v>
       </c>
       <c r="P4" s="32" t="n">
-        <v>0.0041</v>
+        <v>0.00561666666666667</v>
       </c>
       <c r="Q4" s="32" t="n">
-        <v>0.0041</v>
+        <v>0.00561666666666667</v>
       </c>
       <c r="R4" s="32" t="n">
-        <v>0.0123</v>
+        <v>0.01685</v>
       </c>
       <c r="S4" s="32" t="n">
-        <v>0.0041</v>
+        <v>0.00561666666666667</v>
       </c>
       <c r="T4" s="32" t="n">
-        <v>0.0041</v>
+        <v>0.00561666666666667</v>
       </c>
       <c r="U4" s="32" t="n">
-        <v>0.0041</v>
+        <v>0.00561666666666667</v>
       </c>
       <c r="V4" s="32" t="n">
-        <v>0.0123</v>
+        <v>0.01685</v>
       </c>
       <c r="W4" s="32" t="n">
-        <v>0.0492</v>
+        <v>0.0674</v>
       </c>
     </row>
     <row r="5">
@@ -12917,12 +12765,8 @@
       </c>
       <c r="K7" s="32"/>
       <c r="L7" s="32"/>
-      <c r="M7" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="32" t="n">
-        <v>1</v>
-      </c>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
       <c r="O7" s="32" t="n">
         <v>1</v>
       </c>
@@ -12965,7 +12809,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="32" t="n">
-        <v>0.0081</v>
+        <v>0.0162</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -13036,7 +12880,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="32" t="n">
-        <v>0.0081</v>
+        <v>0.0162</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -13107,7 +12951,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="32" t="n">
-        <v>0.0081</v>
+        <v>0.0162</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -13119,7 +12963,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="32" t="n">
-        <v>0.004</v>
+        <v>0.0041</v>
       </c>
       <c r="J10" s="32" t="n">
         <v>0.008</v>
@@ -13131,37 +12975,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="32" t="n">
-        <v>0.00161666666666667</v>
+        <v>0.0083</v>
       </c>
       <c r="N10" s="32" t="n">
-        <v>0.00485</v>
+        <v>0.0082</v>
       </c>
       <c r="O10" s="32" t="n">
-        <v>0.00161666666666667</v>
+        <v>0.0027</v>
       </c>
       <c r="P10" s="32" t="n">
-        <v>0.00161666666666667</v>
+        <v>0.0027</v>
       </c>
       <c r="Q10" s="32" t="n">
-        <v>0.00161666666666667</v>
+        <v>0.0027</v>
       </c>
       <c r="R10" s="32" t="n">
-        <v>0.00485</v>
+        <v>0.0081</v>
       </c>
       <c r="S10" s="32" t="n">
-        <v>0.00161666666666667</v>
+        <v>0.0027</v>
       </c>
       <c r="T10" s="32" t="n">
-        <v>0.00161666666666667</v>
+        <v>0.0027</v>
       </c>
       <c r="U10" s="32" t="n">
-        <v>0.00161666666666667</v>
+        <v>0.0027</v>
       </c>
       <c r="V10" s="32" t="n">
-        <v>0.00485</v>
+        <v>0.0081</v>
       </c>
       <c r="W10" s="32" t="n">
-        <v>0.0194</v>
+        <v>0.0324</v>
       </c>
     </row>
   </sheetData>
@@ -13263,7 +13107,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="33" t="n">
-        <v>0.0426</v>
+        <v>0.0538</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -13334,7 +13178,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="33" t="n">
-        <v>0.0426</v>
+        <v>0.0538</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -13405,7 +13249,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="33" t="n">
-        <v>0.0426</v>
+        <v>0.0538</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -13426,40 +13270,40 @@
         <v>0.0106</v>
       </c>
       <c r="L4" s="33" t="n">
-        <v>0.0213</v>
+        <v>0.0217</v>
       </c>
       <c r="M4" s="33" t="n">
-        <v>0.00851666666666667</v>
+        <v>0.011</v>
       </c>
       <c r="N4" s="33" t="n">
-        <v>0.02555</v>
+        <v>0.0433</v>
       </c>
       <c r="O4" s="33" t="n">
-        <v>0.00851666666666667</v>
+        <v>0.00896666666666667</v>
       </c>
       <c r="P4" s="33" t="n">
-        <v>0.00851666666666667</v>
+        <v>0.00896666666666667</v>
       </c>
       <c r="Q4" s="33" t="n">
-        <v>0.00851666666666667</v>
+        <v>0.00896666666666667</v>
       </c>
       <c r="R4" s="33" t="n">
-        <v>0.02555</v>
+        <v>0.0269</v>
       </c>
       <c r="S4" s="33" t="n">
-        <v>0.00851666666666667</v>
+        <v>0.00896666666666667</v>
       </c>
       <c r="T4" s="33" t="n">
-        <v>0.00851666666666667</v>
+        <v>0.00896666666666667</v>
       </c>
       <c r="U4" s="33" t="n">
-        <v>0.00851666666666667</v>
+        <v>0.00896666666666667</v>
       </c>
       <c r="V4" s="33" t="n">
-        <v>0.02555</v>
+        <v>0.0269</v>
       </c>
       <c r="W4" s="33" t="n">
-        <v>0.1022</v>
+        <v>0.1076</v>
       </c>
     </row>
     <row r="5">
@@ -13613,9 +13457,7 @@
       <c r="L7" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="M7" s="33"/>
       <c r="N7" s="33" t="n">
         <v>0</v>
       </c>
@@ -13661,7 +13503,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="33" t="n">
-        <v>0.0943</v>
+        <v>0.0938</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -13732,7 +13574,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="33" t="n">
-        <v>0.0943</v>
+        <v>0.0938</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -13803,7 +13645,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="33" t="n">
-        <v>0.0943</v>
+        <v>0.0938</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -13827,37 +13669,37 @@
         <v>0.0385</v>
       </c>
       <c r="M10" s="33" t="n">
-        <v>0.0188583333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="33" t="n">
-        <v>0.056575</v>
+        <v>0.0569</v>
       </c>
       <c r="O10" s="33" t="n">
-        <v>0.0188583333333333</v>
+        <v>0.0156333333333333</v>
       </c>
       <c r="P10" s="33" t="n">
-        <v>0.0188583333333333</v>
+        <v>0.0156333333333333</v>
       </c>
       <c r="Q10" s="33" t="n">
-        <v>0.0188583333333333</v>
+        <v>0.0156333333333333</v>
       </c>
       <c r="R10" s="33" t="n">
-        <v>0.056575</v>
+        <v>0.0469</v>
       </c>
       <c r="S10" s="33" t="n">
-        <v>0.0188583333333333</v>
+        <v>0.0156333333333333</v>
       </c>
       <c r="T10" s="33" t="n">
-        <v>0.0188583333333333</v>
+        <v>0.0156333333333333</v>
       </c>
       <c r="U10" s="33" t="n">
-        <v>0.0188583333333333</v>
+        <v>0.0156333333333333</v>
       </c>
       <c r="V10" s="33" t="n">
-        <v>0.056575</v>
+        <v>0.0469</v>
       </c>
       <c r="W10" s="33" t="n">
-        <v>0.2263</v>
+        <v>0.1876</v>
       </c>
     </row>
   </sheetData>
@@ -13959,7 +13801,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.0617</v>
+        <v>0.0602</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -14030,7 +13872,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.0617</v>
+        <v>0.0602</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -14101,61 +13943,61 @@
         <v>26</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.0617</v>
+        <v>0.0602</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="34" t="n">
-        <v>0.0189</v>
+        <v>0.0185</v>
       </c>
       <c r="H4" s="34" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="34" t="n">
+        <v>0.0208</v>
+      </c>
+      <c r="J4" s="34" t="n">
+        <v>0.0394</v>
+      </c>
+      <c r="K4" s="34" t="n">
         <v>0.0213</v>
       </c>
-      <c r="J4" s="34" t="n">
-        <v>0.0402</v>
-      </c>
-      <c r="K4" s="34" t="n">
-        <v>0.0217</v>
-      </c>
       <c r="L4" s="34" t="n">
         <v>0</v>
       </c>
       <c r="M4" s="34" t="n">
-        <v>0.0123416666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="34" t="n">
-        <v>0.037025</v>
+        <v>0.0204</v>
       </c>
       <c r="O4" s="34" t="n">
-        <v>0.0123416666666667</v>
+        <v>0.0100333333333333</v>
       </c>
       <c r="P4" s="34" t="n">
-        <v>0.0123416666666667</v>
+        <v>0.0100333333333333</v>
       </c>
       <c r="Q4" s="34" t="n">
-        <v>0.0123416666666667</v>
+        <v>0.0100333333333333</v>
       </c>
       <c r="R4" s="34" t="n">
-        <v>0.037025</v>
+        <v>0.0301</v>
       </c>
       <c r="S4" s="34" t="n">
-        <v>0.0123416666666667</v>
+        <v>0.0100333333333333</v>
       </c>
       <c r="T4" s="34" t="n">
-        <v>0.0123416666666667</v>
+        <v>0.0100333333333333</v>
       </c>
       <c r="U4" s="34" t="n">
-        <v>0.0123416666666667</v>
+        <v>0.0100333333333333</v>
       </c>
       <c r="V4" s="34" t="n">
-        <v>0.037025</v>
+        <v>0.0301</v>
       </c>
       <c r="W4" s="34" t="n">
-        <v>0.1481</v>
+        <v>0.1204</v>
       </c>
     </row>
     <row r="5">
@@ -14172,7 +14014,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>0.714285714285714</v>
+        <v>0.75</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -14221,7 +14063,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>0.714285714285714</v>
+        <v>0.75</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -14292,7 +14134,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.714285714285714</v>
+        <v>0.75</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -14310,37 +14152,37 @@
         <v>0</v>
       </c>
       <c r="M7" s="34" t="n">
-        <v>0.714285714285714</v>
+        <v>1</v>
       </c>
       <c r="N7" s="34" t="n">
-        <v>0.714285714285714</v>
+        <v>0.3333</v>
       </c>
       <c r="O7" s="34" t="n">
-        <v>0.714285714285714</v>
+        <v>0.75</v>
       </c>
       <c r="P7" s="34" t="n">
-        <v>0.714285714285714</v>
+        <v>0.75</v>
       </c>
       <c r="Q7" s="34" t="n">
-        <v>0.714285714285714</v>
+        <v>0.75</v>
       </c>
       <c r="R7" s="34" t="n">
-        <v>0.714285714285714</v>
+        <v>0.75</v>
       </c>
       <c r="S7" s="34" t="n">
-        <v>0.714285714285714</v>
+        <v>0.75</v>
       </c>
       <c r="T7" s="34" t="n">
-        <v>0.714285714285714</v>
+        <v>0.75</v>
       </c>
       <c r="U7" s="34" t="n">
-        <v>0.714285714285714</v>
+        <v>0.75</v>
       </c>
       <c r="V7" s="34" t="n">
-        <v>0.714285714285714</v>
+        <v>0.75</v>
       </c>
       <c r="W7" s="34" t="n">
-        <v>0.714285714285714</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="8">
@@ -14357,7 +14199,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.0146</v>
+        <v>0.0295</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -14428,7 +14270,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.0146</v>
+        <v>0.0295</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -14499,13 +14341,13 @@
         <v>31</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.0146</v>
+        <v>0.0295</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="34" t="n">
-        <v>0.0145</v>
+        <v>0.0147</v>
       </c>
       <c r="H10" s="34" t="n">
         <v>0</v>
@@ -14523,37 +14365,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="34" t="n">
-        <v>0.00291666666666667</v>
+        <v>0.0154</v>
       </c>
       <c r="N10" s="34" t="n">
-        <v>0.00875</v>
+        <v>0.0149</v>
       </c>
       <c r="O10" s="34" t="n">
-        <v>0.00291666666666667</v>
+        <v>0.00491666666666667</v>
       </c>
       <c r="P10" s="34" t="n">
-        <v>0.00291666666666667</v>
+        <v>0.00491666666666667</v>
       </c>
       <c r="Q10" s="34" t="n">
-        <v>0.00291666666666667</v>
+        <v>0.00491666666666667</v>
       </c>
       <c r="R10" s="34" t="n">
-        <v>0.00875</v>
+        <v>0.01475</v>
       </c>
       <c r="S10" s="34" t="n">
-        <v>0.00291666666666667</v>
+        <v>0.00491666666666667</v>
       </c>
       <c r="T10" s="34" t="n">
-        <v>0.00291666666666667</v>
+        <v>0.00491666666666667</v>
       </c>
       <c r="U10" s="34" t="n">
-        <v>0.00291666666666667</v>
+        <v>0.00491666666666667</v>
       </c>
       <c r="V10" s="34" t="n">
-        <v>0.00875</v>
+        <v>0.01475</v>
       </c>
       <c r="W10" s="34" t="n">
-        <v>0.035</v>
+        <v>0.059</v>
       </c>
     </row>
   </sheetData>
@@ -14878,7 +14720,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="36" t="n">
-        <v>0.0376</v>
+        <v>0.0749</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -14949,7 +14791,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="36" t="n">
-        <v>0.0376</v>
+        <v>0.0749</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -15020,7 +14862,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="36" t="n">
-        <v>0.0376</v>
+        <v>0.0749</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -15044,37 +14886,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="36" t="n">
-        <v>0.00751666666666667</v>
+        <v>0.037</v>
       </c>
       <c r="N4" s="36" t="n">
-        <v>0.02255</v>
+        <v>0.037</v>
       </c>
       <c r="O4" s="36" t="n">
-        <v>0.00751666666666667</v>
+        <v>0.0124833333333333</v>
       </c>
       <c r="P4" s="36" t="n">
-        <v>0.00751666666666667</v>
+        <v>0.0124833333333333</v>
       </c>
       <c r="Q4" s="36" t="n">
-        <v>0.00751666666666667</v>
+        <v>0.0124833333333333</v>
       </c>
       <c r="R4" s="36" t="n">
-        <v>0.02255</v>
+        <v>0.03745</v>
       </c>
       <c r="S4" s="36" t="n">
-        <v>0.00751666666666667</v>
+        <v>0.0124833333333333</v>
       </c>
       <c r="T4" s="36" t="n">
-        <v>0.00751666666666667</v>
+        <v>0.0124833333333333</v>
       </c>
       <c r="U4" s="36" t="n">
-        <v>0.00751666666666667</v>
+        <v>0.0124833333333333</v>
       </c>
       <c r="V4" s="36" t="n">
-        <v>0.02255</v>
+        <v>0.03745</v>
       </c>
       <c r="W4" s="36" t="n">
-        <v>0.0902</v>
+        <v>0.1498</v>
       </c>
     </row>
     <row r="5">
@@ -15228,12 +15070,8 @@
       </c>
       <c r="K7" s="36"/>
       <c r="L7" s="36"/>
-      <c r="M7" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="36" t="n">
-        <v>0</v>
-      </c>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
       <c r="O7" s="36" t="n">
         <v>0</v>
       </c>
@@ -15276,7 +15114,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="36" t="n">
-        <v>0.0309</v>
+        <v>0.0612</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -15347,7 +15185,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="36" t="n">
-        <v>0.0309</v>
+        <v>0.0612</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -15418,7 +15256,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="36" t="n">
-        <v>0.0309</v>
+        <v>0.0612</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -15442,37 +15280,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="36" t="n">
-        <v>0.00618333333333333</v>
+        <v>0.0294</v>
       </c>
       <c r="N10" s="36" t="n">
-        <v>0.01855</v>
+        <v>0.03</v>
       </c>
       <c r="O10" s="36" t="n">
-        <v>0.00618333333333333</v>
+        <v>0.0102</v>
       </c>
       <c r="P10" s="36" t="n">
-        <v>0.00618333333333333</v>
+        <v>0.0102</v>
       </c>
       <c r="Q10" s="36" t="n">
-        <v>0.00618333333333333</v>
+        <v>0.0102</v>
       </c>
       <c r="R10" s="36" t="n">
-        <v>0.01855</v>
+        <v>0.0306</v>
       </c>
       <c r="S10" s="36" t="n">
-        <v>0.00618333333333333</v>
+        <v>0.0102</v>
       </c>
       <c r="T10" s="36" t="n">
-        <v>0.00618333333333333</v>
+        <v>0.0102</v>
       </c>
       <c r="U10" s="36" t="n">
-        <v>0.00618333333333333</v>
+        <v>0.0102</v>
       </c>
       <c r="V10" s="36" t="n">
-        <v>0.01855</v>
+        <v>0.0306</v>
       </c>
       <c r="W10" s="36" t="n">
-        <v>0.0742</v>
+        <v>0.1224</v>
       </c>
     </row>
   </sheetData>
@@ -15631,6 +15469,77 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="37" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -15943,138 +15852,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="39" t="n">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" s="39" t="n">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="N3" s="39" t="n">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="O3" s="39" t="n">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="P3" s="39" t="n">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="Q3" s="39" t="n">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="R3" s="39" t="n">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="S3" s="39" t="n">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="T3" s="39" t="n">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="U3" s="39" t="n">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="V3" s="39" t="n">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="W3" s="39" t="n">
-        <v>0.166666666666667</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="39" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -16690,10 +16467,18 @@
       <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
+      <c r="G2" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="40" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" s="40" t="n">
         <v>0</v>
       </c>
@@ -16830,27 +16615,53 @@
         <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E2" s="41" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
+        <v>29</v>
+      </c>
+      <c r="G2" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="41" t="n">
+        <v>0</v>
+      </c>
       <c r="T2" s="41" t="n">
         <v>0</v>
       </c>
@@ -16881,7 +16692,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
@@ -16889,13 +16700,27 @@
       <c r="J3" s="41"/>
       <c r="K3" s="41"/>
       <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
+      <c r="M3" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="41" t="n">
+        <v>0</v>
+      </c>
       <c r="T3" s="41" t="n">
         <v>0</v>
       </c>
@@ -16907,6 +16732,231 @@
       </c>
       <c r="W3" s="41" t="n">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="42" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O3" s="42" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="P3" s="42" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="Q3" s="42" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="R3" s="42" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="S3" s="42" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="T3" s="42" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="U3" s="42" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="V3" s="42" t="n">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="W3" s="42" t="n">
+        <v>0.166666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -16917,66 +16967,450 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="41" t="n">
+      <c r="E4" s="42" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="41" t="n">
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" s="44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17079,7 +17513,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0.0728</v>
+        <v>0.0711</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -17150,7 +17584,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>0.0728</v>
+        <v>0.0711</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -17221,22 +17655,22 @@
         <v>26</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.0728</v>
+        <v>0.0711</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="5" t="n">
+        <v>0.0227</v>
+      </c>
+      <c r="H4" s="5" t="n">
         <v>0.0233</v>
       </c>
-      <c r="H4" s="5" t="n">
-        <v>0.0238</v>
-      </c>
       <c r="I4" s="5" t="n">
-        <v>0.025</v>
+        <v>0.0244</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.0719</v>
+        <v>0.0703</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0</v>
@@ -17245,37 +17679,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>0.0145583333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.043675</v>
+        <v>0</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>0.0145583333333333</v>
+        <v>0.01185</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>0.0145583333333333</v>
+        <v>0.01185</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0.0145583333333333</v>
+        <v>0.01185</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0.043675</v>
+        <v>0.03555</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0.0145583333333333</v>
+        <v>0.01185</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>0.0145583333333333</v>
+        <v>0.01185</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>0.0145583333333333</v>
+        <v>0.01185</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0.043675</v>
+        <v>0.03555</v>
       </c>
       <c r="W4" s="5" t="n">
-        <v>0.1747</v>
+        <v>0.1422</v>
       </c>
     </row>
     <row r="5">
@@ -17477,7 +17911,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0999</v>
+        <v>0.107</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -17548,7 +17982,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0999</v>
+        <v>0.107</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -17619,61 +18053,61 @@
         <v>31</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.0999</v>
+        <v>0.107</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.0199</v>
+        <v>0.02</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.0204</v>
+        <v>0.0205</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.0132</v>
       </c>
       <c r="J10" s="5" t="n">
+        <v>0.0537</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.0199</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.0066</v>
+      </c>
+      <c r="N10" s="5" t="n">
         <v>0.0533</v>
       </c>
-      <c r="K10" s="5" t="n">
-        <v>0.0268</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>0.0197</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0.0199833333333333</v>
-      </c>
-      <c r="N10" s="5" t="n">
-        <v>0.05995</v>
-      </c>
       <c r="O10" s="5" t="n">
-        <v>0.0199833333333333</v>
+        <v>0.0178333333333333</v>
       </c>
       <c r="P10" s="5" t="n">
-        <v>0.0199833333333333</v>
+        <v>0.0178333333333333</v>
       </c>
       <c r="Q10" s="5" t="n">
-        <v>0.0199833333333333</v>
+        <v>0.0178333333333333</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>0.05995</v>
+        <v>0.0535</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>0.0199833333333333</v>
+        <v>0.0178333333333333</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>0.0199833333333333</v>
+        <v>0.0178333333333333</v>
       </c>
       <c r="U10" s="5" t="n">
-        <v>0.0199833333333333</v>
+        <v>0.0178333333333333</v>
       </c>
       <c r="V10" s="5" t="n">
-        <v>0.05995</v>
+        <v>0.0535</v>
       </c>
       <c r="W10" s="5" t="n">
-        <v>0.2398</v>
+        <v>0.214</v>
       </c>
     </row>
   </sheetData>
@@ -17775,7 +18209,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.0168</v>
+        <v>0.0165</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -17846,7 +18280,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.0168</v>
+        <v>0.0165</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -17917,7 +18351,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.0168</v>
+        <v>0.0165</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -17929,10 +18363,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0169</v>
+        <v>0.0167</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.0168</v>
+        <v>0.0165</v>
       </c>
       <c r="K4" s="6" t="n">
         <v>0</v>
@@ -17941,37 +18375,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>0.00335833333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.010075</v>
+        <v>0</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00335833333333333</v>
+        <v>0.00275</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.00335833333333333</v>
+        <v>0.00275</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0.00335833333333333</v>
+        <v>0.00275</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.010075</v>
+        <v>0.00825</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0.00335833333333333</v>
+        <v>0.00275</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0.00335833333333333</v>
+        <v>0.00275</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.00335833333333333</v>
+        <v>0.00275</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.010075</v>
+        <v>0.00825</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0403</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="5">
@@ -18731,7 +19165,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.0122</v>
+        <v>0.0121</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -18802,7 +19236,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>0.0122</v>
+        <v>0.0121</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -18873,7 +19307,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="7" t="n">
-        <v>0.0122</v>
+        <v>0.0121</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -18897,37 +19331,37 @@
         <v>0</v>
       </c>
       <c r="M9" s="7" t="n">
-        <v>0.00244166666666667</v>
+        <v>0</v>
       </c>
       <c r="N9" s="7" t="n">
-        <v>0.007325</v>
+        <v>0.0121</v>
       </c>
       <c r="O9" s="7" t="n">
-        <v>0.00244166666666667</v>
+        <v>0.00201666666666667</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>0.00244166666666667</v>
+        <v>0.00201666666666667</v>
       </c>
       <c r="Q9" s="7" t="n">
-        <v>0.00244166666666667</v>
+        <v>0.00201666666666667</v>
       </c>
       <c r="R9" s="7" t="n">
-        <v>0.007325</v>
+        <v>0.00605</v>
       </c>
       <c r="S9" s="7" t="n">
-        <v>0.00244166666666667</v>
+        <v>0.00201666666666667</v>
       </c>
       <c r="T9" s="7" t="n">
-        <v>0.00244166666666667</v>
+        <v>0.00201666666666667</v>
       </c>
       <c r="U9" s="7" t="n">
-        <v>0.00244166666666667</v>
+        <v>0.00201666666666667</v>
       </c>
       <c r="V9" s="7" t="n">
-        <v>0.007325</v>
+        <v>0.00605</v>
       </c>
       <c r="W9" s="7" t="n">
-        <v>0.0293</v>
+        <v>0.0242</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_IPS Clutches & Brakes Division.xlsx
+++ b/outputs/SORs/SOR Testing_IPS Clutches & Brakes Division.xlsx
@@ -790,7 +790,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>0.1739</v>
+        <v>0.1762</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -861,7 +861,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0.1739</v>
+        <v>0.1762</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -932,7 +932,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.1739</v>
+        <v>0.1762</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -962,31 +962,31 @@
         <v>0.1364</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>0.0289833333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>0.0289833333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>0.0289833333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>0.08695</v>
+        <v>0</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>0.0289833333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>0.0289833333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>0.0289833333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>0.08695</v>
+        <v>0</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>0.3478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1127,7 +1127,7 @@
         <v>31</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0.0392</v>
+        <v>0.0394</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -1198,7 +1198,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>0.0392</v>
+        <v>0.0394</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -1269,7 +1269,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>0.0392</v>
+        <v>0.0394</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -1299,31 +1299,31 @@
         <v>0.04</v>
       </c>
       <c r="O9" s="1" t="n">
-        <v>0.00653333333333333</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>0.00653333333333333</v>
+        <v>0.005625</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>0.00653333333333333</v>
+        <v>0.005625</v>
       </c>
       <c r="R9" s="1" t="n">
-        <v>0.0196</v>
+        <v>0.016875</v>
       </c>
       <c r="S9" s="1" t="n">
-        <v>0.00653333333333333</v>
+        <v>0.005625</v>
       </c>
       <c r="T9" s="1" t="n">
-        <v>0.00653333333333333</v>
+        <v>0.005625</v>
       </c>
       <c r="U9" s="1" t="n">
-        <v>0.00653333333333333</v>
+        <v>0.005625</v>
       </c>
       <c r="V9" s="1" t="n">
-        <v>0.0196</v>
+        <v>0.016875</v>
       </c>
       <c r="W9" s="1" t="n">
-        <v>0.0784</v>
+        <v>0.0675</v>
       </c>
     </row>
   </sheetData>
@@ -1810,31 +1810,31 @@
         <v>0</v>
       </c>
       <c r="O7" s="10" t="n">
-        <v>0.00466666666666667</v>
+        <v>0</v>
       </c>
       <c r="P7" s="10" t="n">
-        <v>0.00466666666666667</v>
+        <v>0.004</v>
       </c>
       <c r="Q7" s="10" t="n">
-        <v>0.00466666666666667</v>
+        <v>0.004</v>
       </c>
       <c r="R7" s="10" t="n">
-        <v>0.014</v>
+        <v>0.012</v>
       </c>
       <c r="S7" s="10" t="n">
-        <v>0.00466666666666667</v>
+        <v>0.004</v>
       </c>
       <c r="T7" s="10" t="n">
-        <v>0.00466666666666667</v>
+        <v>0.004</v>
       </c>
       <c r="U7" s="10" t="n">
-        <v>0.00466666666666667</v>
+        <v>0.004</v>
       </c>
       <c r="V7" s="10" t="n">
-        <v>0.014</v>
+        <v>0.012</v>
       </c>
       <c r="W7" s="10" t="n">
-        <v>0.056</v>
+        <v>0.048</v>
       </c>
     </row>
   </sheetData>
@@ -1936,7 +1936,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="11" t="n">
-        <v>0.0274</v>
+        <v>0.0276</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2007,7 +2007,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="11" t="n">
-        <v>0.0274</v>
+        <v>0.0276</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2078,7 +2078,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="11" t="n">
-        <v>0.0274</v>
+        <v>0.0276</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2108,31 +2108,31 @@
         <v>0.0187</v>
       </c>
       <c r="O4" s="11" t="n">
-        <v>0.00456666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="11" t="n">
-        <v>0.00456666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="11" t="n">
-        <v>0.00456666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="11" t="n">
-        <v>0.0137</v>
+        <v>0</v>
       </c>
       <c r="S4" s="11" t="n">
-        <v>0.00456666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="11" t="n">
-        <v>0.00456666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="11" t="n">
-        <v>0.00456666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="11" t="n">
-        <v>0.0137</v>
+        <v>0</v>
       </c>
       <c r="W4" s="11" t="n">
-        <v>0.0548</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2148,7 +2148,9 @@
       <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -2193,7 +2195,9 @@
       <c r="D6" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="11"/>
+      <c r="E6" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -2260,64 +2264,48 @@
         <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="11" t="n">
-        <v>0.0506</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="11" t="n">
-        <v>0.0087</v>
-      </c>
-      <c r="H7" s="11" t="n">
-        <v>0.0043</v>
-      </c>
-      <c r="I7" s="11" t="n">
-        <v>0.0043</v>
-      </c>
-      <c r="J7" s="11" t="n">
-        <v>0.0173</v>
-      </c>
-      <c r="K7" s="11" t="n">
-        <v>0.0213</v>
-      </c>
-      <c r="L7" s="11" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="M7" s="11" t="n">
-        <v>0.0175</v>
-      </c>
-      <c r="N7" s="11" t="n">
-        <v>0.0689</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
       <c r="O7" s="11" t="n">
-        <v>0.0262</v>
+        <v>1</v>
       </c>
       <c r="P7" s="11" t="n">
-        <v>0.018</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="11" t="n">
-        <v>0.0137</v>
+        <v>1</v>
       </c>
       <c r="R7" s="11" t="n">
-        <v>0.0582</v>
+        <v>1</v>
       </c>
       <c r="S7" s="11" t="n">
-        <v>0.0185</v>
+        <v>1</v>
       </c>
       <c r="T7" s="11" t="n">
-        <v>0.0047</v>
+        <v>1</v>
       </c>
       <c r="U7" s="11" t="n">
-        <v>0.0047</v>
+        <v>1</v>
       </c>
       <c r="V7" s="11" t="n">
-        <v>0.0281</v>
+        <v>1</v>
       </c>
       <c r="W7" s="11" t="n">
-        <v>0.1732</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -2334,61 +2322,61 @@
         <v>31</v>
       </c>
       <c r="E8" s="11" t="n">
-        <v>0.0506</v>
+        <v>0.0508</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="11" t="n">
-        <v>0.00783</v>
+        <v>0.0087</v>
       </c>
       <c r="H8" s="11" t="n">
-        <v>0.00387</v>
+        <v>0.0043</v>
       </c>
       <c r="I8" s="11" t="n">
-        <v>0.00387</v>
+        <v>0.0043</v>
       </c>
       <c r="J8" s="11" t="n">
-        <v>0.01557</v>
+        <v>0.0173</v>
       </c>
       <c r="K8" s="11" t="n">
-        <v>0.01917</v>
+        <v>0.0213</v>
       </c>
       <c r="L8" s="11" t="n">
-        <v>0.027</v>
+        <v>0.03</v>
       </c>
       <c r="M8" s="11" t="n">
-        <v>0.01575</v>
+        <v>0.0175</v>
       </c>
       <c r="N8" s="11" t="n">
-        <v>0.06201</v>
+        <v>0.0689</v>
       </c>
       <c r="O8" s="11" t="n">
-        <v>0.02358</v>
+        <v>0.0262</v>
       </c>
       <c r="P8" s="11" t="n">
-        <v>0.0162</v>
+        <v>0.018</v>
       </c>
       <c r="Q8" s="11" t="n">
-        <v>0.01233</v>
+        <v>0.0137</v>
       </c>
       <c r="R8" s="11" t="n">
-        <v>0.05238</v>
+        <v>0.0582</v>
       </c>
       <c r="S8" s="11" t="n">
-        <v>0.01665</v>
+        <v>0.0185</v>
       </c>
       <c r="T8" s="11" t="n">
-        <v>0.00423</v>
+        <v>0.0047</v>
       </c>
       <c r="U8" s="11" t="n">
-        <v>0.00423</v>
+        <v>0.0047</v>
       </c>
       <c r="V8" s="11" t="n">
-        <v>0.02529</v>
+        <v>0.0281</v>
       </c>
       <c r="W8" s="11" t="n">
-        <v>0.15588</v>
+        <v>0.1732</v>
       </c>
     </row>
     <row r="9">
@@ -2405,61 +2393,132 @@
         <v>31</v>
       </c>
       <c r="E9" s="11" t="n">
-        <v>0.0506</v>
+        <v>0.0508</v>
       </c>
       <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="11" t="n">
+        <v>0.00783</v>
+      </c>
+      <c r="H9" s="11" t="n">
+        <v>0.00387</v>
+      </c>
+      <c r="I9" s="11" t="n">
+        <v>0.00387</v>
+      </c>
+      <c r="J9" s="11" t="n">
+        <v>0.01557</v>
+      </c>
+      <c r="K9" s="11" t="n">
+        <v>0.01917</v>
+      </c>
+      <c r="L9" s="11" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="M9" s="11" t="n">
+        <v>0.01575</v>
+      </c>
+      <c r="N9" s="11" t="n">
+        <v>0.06201</v>
+      </c>
+      <c r="O9" s="11" t="n">
+        <v>0.02358</v>
+      </c>
+      <c r="P9" s="11" t="n">
+        <v>0.0162</v>
+      </c>
+      <c r="Q9" s="11" t="n">
+        <v>0.01233</v>
+      </c>
+      <c r="R9" s="11" t="n">
+        <v>0.05238</v>
+      </c>
+      <c r="S9" s="11" t="n">
+        <v>0.01665</v>
+      </c>
+      <c r="T9" s="11" t="n">
+        <v>0.00423</v>
+      </c>
+      <c r="U9" s="11" t="n">
+        <v>0.00423</v>
+      </c>
+      <c r="V9" s="11" t="n">
+        <v>0.02529</v>
+      </c>
+      <c r="W9" s="11" t="n">
+        <v>0.15588</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="11" t="n">
+        <v>0.0508</v>
+      </c>
+      <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="11" t="n">
+      <c r="G10" s="11" t="n">
         <v>0.0192</v>
       </c>
-      <c r="H9" s="11" t="n">
+      <c r="H10" s="11" t="n">
         <v>0.0101</v>
       </c>
-      <c r="I9" s="11" t="n">
+      <c r="I10" s="11" t="n">
         <v>0.0102</v>
       </c>
-      <c r="J9" s="11" t="n">
+      <c r="J10" s="11" t="n">
         <v>0.0398</v>
       </c>
-      <c r="K9" s="11" t="n">
+      <c r="K10" s="11" t="n">
         <v>0.0103</v>
       </c>
-      <c r="L9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="11" t="n">
+      <c r="L10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="11" t="n">
         <v>0.0103</v>
       </c>
-      <c r="O9" s="11" t="n">
-        <v>0.00843333333333333</v>
-      </c>
-      <c r="P9" s="11" t="n">
-        <v>0.00843333333333333</v>
-      </c>
-      <c r="Q9" s="11" t="n">
-        <v>0.00843333333333333</v>
-      </c>
-      <c r="R9" s="11" t="n">
-        <v>0.0253</v>
-      </c>
-      <c r="S9" s="11" t="n">
-        <v>0.00843333333333333</v>
-      </c>
-      <c r="T9" s="11" t="n">
-        <v>0.00843333333333333</v>
-      </c>
-      <c r="U9" s="11" t="n">
-        <v>0.00843333333333333</v>
-      </c>
-      <c r="V9" s="11" t="n">
-        <v>0.0253</v>
-      </c>
-      <c r="W9" s="11" t="n">
-        <v>0.1012</v>
+      <c r="O10" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="11" t="n">
+        <v>0.00725833333333333</v>
+      </c>
+      <c r="Q10" s="11" t="n">
+        <v>0.00725833333333333</v>
+      </c>
+      <c r="R10" s="11" t="n">
+        <v>0.021775</v>
+      </c>
+      <c r="S10" s="11" t="n">
+        <v>0.00725833333333333</v>
+      </c>
+      <c r="T10" s="11" t="n">
+        <v>0.00725833333333333</v>
+      </c>
+      <c r="U10" s="11" t="n">
+        <v>0.00725833333333333</v>
+      </c>
+      <c r="V10" s="11" t="n">
+        <v>0.021775</v>
+      </c>
+      <c r="W10" s="11" t="n">
+        <v>0.0871</v>
       </c>
     </row>
   </sheetData>
@@ -3405,7 +3464,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="14" t="n">
-        <v>0.0826</v>
+        <v>0.0823</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3476,7 +3535,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="14" t="n">
-        <v>0.0826</v>
+        <v>0.0823</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3547,7 +3606,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="14" t="n">
-        <v>0.0826</v>
+        <v>0.0823</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3577,31 +3636,31 @@
         <v>0.0405</v>
       </c>
       <c r="O4" s="14" t="n">
-        <v>0.0137666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="14" t="n">
-        <v>0.0137666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="14" t="n">
-        <v>0.0137666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="14" t="n">
-        <v>0.0413</v>
+        <v>0</v>
       </c>
       <c r="S4" s="14" t="n">
-        <v>0.0137666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="14" t="n">
-        <v>0.0137666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="14" t="n">
-        <v>0.0137666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="14" t="n">
-        <v>0.0413</v>
+        <v>0</v>
       </c>
       <c r="W4" s="14" t="n">
-        <v>0.1652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3755,9 +3814,7 @@
       <c r="N7" s="14" t="n">
         <v>0.5</v>
       </c>
-      <c r="O7" s="14" t="n">
-        <v>0.333333333333333</v>
-      </c>
+      <c r="O7" s="14"/>
       <c r="P7" s="14" t="n">
         <v>0.333333333333333</v>
       </c>
@@ -3797,7 +3854,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0.1282</v>
+        <v>0.2632</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3868,7 +3925,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0.1282</v>
+        <v>0.2632</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3939,7 +3996,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="14" t="n">
-        <v>0.1282</v>
+        <v>0.2632</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -3969,31 +4026,31 @@
         <v>0.1299</v>
       </c>
       <c r="O10" s="14" t="n">
-        <v>0.0213666666666667</v>
+        <v>0.1667</v>
       </c>
       <c r="P10" s="14" t="n">
-        <v>0.0213666666666667</v>
+        <v>0.0376</v>
       </c>
       <c r="Q10" s="14" t="n">
-        <v>0.0213666666666667</v>
+        <v>0.0376</v>
       </c>
       <c r="R10" s="14" t="n">
-        <v>0.0641</v>
+        <v>0.1128</v>
       </c>
       <c r="S10" s="14" t="n">
-        <v>0.0213666666666667</v>
+        <v>0.0376</v>
       </c>
       <c r="T10" s="14" t="n">
-        <v>0.0213666666666667</v>
+        <v>0.0376</v>
       </c>
       <c r="U10" s="14" t="n">
-        <v>0.0213666666666667</v>
+        <v>0.0376</v>
       </c>
       <c r="V10" s="14" t="n">
-        <v>0.0641</v>
+        <v>0.1128</v>
       </c>
       <c r="W10" s="14" t="n">
-        <v>0.2564</v>
+        <v>0.4512</v>
       </c>
     </row>
   </sheetData>
@@ -5271,31 +5328,31 @@
         <v>0.0432</v>
       </c>
       <c r="O4" s="18" t="n">
-        <v>0.0072</v>
+        <v>0</v>
       </c>
       <c r="P4" s="18" t="n">
-        <v>0.0072</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="18" t="n">
-        <v>0.0072</v>
+        <v>0</v>
       </c>
       <c r="R4" s="18" t="n">
-        <v>0.0216</v>
+        <v>0</v>
       </c>
       <c r="S4" s="18" t="n">
-        <v>0.0072</v>
+        <v>0</v>
       </c>
       <c r="T4" s="18" t="n">
-        <v>0.0072</v>
+        <v>0</v>
       </c>
       <c r="U4" s="18" t="n">
-        <v>0.0072</v>
+        <v>0</v>
       </c>
       <c r="V4" s="18" t="n">
-        <v>0.0216</v>
+        <v>0</v>
       </c>
       <c r="W4" s="18" t="n">
-        <v>0.0864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -5602,31 +5659,31 @@
         <v>0</v>
       </c>
       <c r="O9" s="18" t="n">
-        <v>0.0031</v>
+        <v>0</v>
       </c>
       <c r="P9" s="18" t="n">
-        <v>0.0031</v>
+        <v>0.00265833333333333</v>
       </c>
       <c r="Q9" s="18" t="n">
-        <v>0.0031</v>
+        <v>0.00265833333333333</v>
       </c>
       <c r="R9" s="18" t="n">
-        <v>0.0093</v>
+        <v>0.007975</v>
       </c>
       <c r="S9" s="18" t="n">
-        <v>0.0031</v>
+        <v>0.00265833333333333</v>
       </c>
       <c r="T9" s="18" t="n">
-        <v>0.0031</v>
+        <v>0.00265833333333333</v>
       </c>
       <c r="U9" s="18" t="n">
-        <v>0.0031</v>
+        <v>0.00265833333333333</v>
       </c>
       <c r="V9" s="18" t="n">
-        <v>0.0093</v>
+        <v>0.007975</v>
       </c>
       <c r="W9" s="18" t="n">
-        <v>0.0372</v>
+        <v>0.0319</v>
       </c>
     </row>
   </sheetData>
@@ -6136,7 +6193,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.0352</v>
+        <v>0.0529</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6207,7 +6264,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.0352</v>
+        <v>0.0529</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6278,7 +6335,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.0352</v>
+        <v>0.0529</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6308,31 +6365,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>0.00586666666666667</v>
+        <v>0.0179</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>0.00586666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0.00586666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0176</v>
+        <v>0</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>0.00586666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>0.00586666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.00586666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>0.0176</v>
+        <v>0</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.0704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -6504,9 +6561,7 @@
       <c r="N7" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="O7" s="2" t="n">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="O7" s="2"/>
       <c r="P7" s="2" t="n">
         <v>0.666666666666667</v>
       </c>
@@ -6546,7 +6601,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.0899</v>
+        <v>0.1136</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -6617,7 +6672,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.0899</v>
+        <v>0.1136</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -6688,7 +6743,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.0899</v>
+        <v>0.1136</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -6712,37 +6767,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>0.0233</v>
+        <v>0.0476</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>0.0462</v>
+        <v>0.0698</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>0.0149833333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>0.0149833333333333</v>
+        <v>0.016225</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0.0149833333333333</v>
+        <v>0.016225</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.04495</v>
+        <v>0.048675</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>0.0149833333333333</v>
+        <v>0.016225</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>0.0149833333333333</v>
+        <v>0.016225</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.0149833333333333</v>
+        <v>0.016225</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>0.04495</v>
+        <v>0.048675</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.1798</v>
+        <v>0.1947</v>
       </c>
     </row>
   </sheetData>
@@ -6844,7 +6899,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="20" t="n">
-        <v>0.0571</v>
+        <v>0.0567</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6915,7 +6970,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="20" t="n">
-        <v>0.0571</v>
+        <v>0.0567</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6986,7 +7041,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="20" t="n">
-        <v>0.0571</v>
+        <v>0.0567</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -7016,31 +7071,31 @@
         <v>0.0556</v>
       </c>
       <c r="O4" s="20" t="n">
-        <v>0.00951666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="20" t="n">
-        <v>0.00951666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="20" t="n">
-        <v>0.00951666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="20" t="n">
-        <v>0.02855</v>
+        <v>0</v>
       </c>
       <c r="S4" s="20" t="n">
-        <v>0.00951666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="20" t="n">
-        <v>0.00951666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="20" t="n">
-        <v>0.00951666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="20" t="n">
-        <v>0.02855</v>
+        <v>0</v>
       </c>
       <c r="W4" s="20" t="n">
-        <v>0.1142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -7057,7 +7112,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="20" t="n">
-        <v>0.5</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -7116,7 +7171,7 @@
         <v>30</v>
       </c>
       <c r="E6" s="20" t="n">
-        <v>0.5</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -7187,7 +7242,7 @@
         <v>30</v>
       </c>
       <c r="E7" s="20" t="n">
-        <v>0.5</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -7213,31 +7268,31 @@
         <v>0.6</v>
       </c>
       <c r="O7" s="20" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P7" s="20" t="n">
-        <v>0.5</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="Q7" s="20" t="n">
-        <v>0.5</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="R7" s="20" t="n">
-        <v>0.5</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="S7" s="20" t="n">
-        <v>0.5</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="T7" s="20" t="n">
-        <v>0.5</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="U7" s="20" t="n">
-        <v>0.5</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="V7" s="20" t="n">
-        <v>0.5</v>
+        <v>0.571428571428571</v>
       </c>
       <c r="W7" s="20" t="n">
-        <v>0.5</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="8">
@@ -8353,31 +8408,31 @@
         <v>0.0236</v>
       </c>
       <c r="O4" s="23" t="n">
-        <v>0.0078</v>
+        <v>0</v>
       </c>
       <c r="P4" s="23" t="n">
-        <v>0.0078</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="23" t="n">
-        <v>0.0078</v>
+        <v>0</v>
       </c>
       <c r="R4" s="23" t="n">
-        <v>0.0234</v>
+        <v>0</v>
       </c>
       <c r="S4" s="23" t="n">
-        <v>0.0078</v>
+        <v>0</v>
       </c>
       <c r="T4" s="23" t="n">
-        <v>0.0078</v>
+        <v>0</v>
       </c>
       <c r="U4" s="23" t="n">
-        <v>0.0078</v>
+        <v>0</v>
       </c>
       <c r="V4" s="23" t="n">
-        <v>0.0234</v>
+        <v>0</v>
       </c>
       <c r="W4" s="23" t="n">
-        <v>0.0936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -8537,9 +8592,7 @@
       <c r="N7" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="O7" s="23" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" s="23"/>
       <c r="P7" s="23" t="n">
         <v>1</v>
       </c>
@@ -8579,7 +8632,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="23" t="n">
-        <v>0.1601</v>
+        <v>0.1892</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -8650,7 +8703,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="23" t="n">
-        <v>0.1601</v>
+        <v>0.1892</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -8721,7 +8774,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="23" t="n">
-        <v>0.1601</v>
+        <v>0.1892</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -8751,31 +8804,31 @@
         <v>0.0924</v>
       </c>
       <c r="O10" s="23" t="n">
-        <v>0.0266833333333333</v>
+        <v>0.0292</v>
       </c>
       <c r="P10" s="23" t="n">
-        <v>0.0266833333333333</v>
+        <v>0.027025</v>
       </c>
       <c r="Q10" s="23" t="n">
-        <v>0.0266833333333333</v>
+        <v>0.027025</v>
       </c>
       <c r="R10" s="23" t="n">
-        <v>0.08005</v>
+        <v>0.081075</v>
       </c>
       <c r="S10" s="23" t="n">
-        <v>0.0266833333333333</v>
+        <v>0.027025</v>
       </c>
       <c r="T10" s="23" t="n">
-        <v>0.0266833333333333</v>
+        <v>0.027025</v>
       </c>
       <c r="U10" s="23" t="n">
-        <v>0.0266833333333333</v>
+        <v>0.027025</v>
       </c>
       <c r="V10" s="23" t="n">
-        <v>0.08005</v>
+        <v>0.081075</v>
       </c>
       <c r="W10" s="23" t="n">
-        <v>0.3202</v>
+        <v>0.3243</v>
       </c>
     </row>
   </sheetData>
@@ -9076,6 +9129,61 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="24" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -10040,9 +10148,7 @@
       <c r="L7" s="27"/>
       <c r="M7" s="27"/>
       <c r="N7" s="27"/>
-      <c r="O7" s="27" t="n">
-        <v>0</v>
-      </c>
+      <c r="O7" s="27"/>
       <c r="P7" s="27" t="n">
         <v>0</v>
       </c>
@@ -10328,32 +10434,30 @@
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="28" t="n">
-        <v>0.166666666666667</v>
-      </c>
+      <c r="O4" s="28"/>
       <c r="P4" s="28" t="n">
-        <v>0.166666666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="28" t="n">
-        <v>0.166666666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="28" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="28" t="n">
-        <v>0.166666666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="28" t="n">
-        <v>0.166666666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="28" t="n">
-        <v>0.166666666666667</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="28" t="n">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -11173,31 +11277,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0.0387666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0.0387666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.0387666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0.1163</v>
+        <v>0</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0.0387666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0.0387666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0.0387666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0.1163</v>
+        <v>0</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>0.4652</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -11299,7 +11403,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="30" t="n">
-        <v>0.0408</v>
+        <v>0.0813</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11370,7 +11474,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="30" t="n">
-        <v>0.0408</v>
+        <v>0.0813</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11441,7 +11545,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="30" t="n">
-        <v>0.0408</v>
+        <v>0.0813</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -11471,31 +11575,31 @@
         <v>0.0417</v>
       </c>
       <c r="O4" s="30" t="n">
-        <v>0.0068</v>
+        <v>0.04</v>
       </c>
       <c r="P4" s="30" t="n">
-        <v>0.0068</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="30" t="n">
-        <v>0.0068</v>
+        <v>0</v>
       </c>
       <c r="R4" s="30" t="n">
-        <v>0.0204</v>
+        <v>0</v>
       </c>
       <c r="S4" s="30" t="n">
-        <v>0.0068</v>
+        <v>0</v>
       </c>
       <c r="T4" s="30" t="n">
-        <v>0.0068</v>
+        <v>0</v>
       </c>
       <c r="U4" s="30" t="n">
-        <v>0.0068</v>
+        <v>0</v>
       </c>
       <c r="V4" s="30" t="n">
-        <v>0.0204</v>
+        <v>0</v>
       </c>
       <c r="W4" s="30" t="n">
-        <v>0.0816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -11723,7 +11827,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="31" t="n">
-        <v>0.0465</v>
+        <v>0.0464</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11794,7 +11898,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="31" t="n">
-        <v>0.0465</v>
+        <v>0.0464</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11865,7 +11969,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="31" t="n">
-        <v>0.0465</v>
+        <v>0.0464</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -11895,31 +11999,31 @@
         <v>0.0303</v>
       </c>
       <c r="O4" s="31" t="n">
-        <v>0.00775</v>
+        <v>0</v>
       </c>
       <c r="P4" s="31" t="n">
-        <v>0.00775</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="31" t="n">
-        <v>0.00775</v>
+        <v>0</v>
       </c>
       <c r="R4" s="31" t="n">
-        <v>0.02325</v>
+        <v>0</v>
       </c>
       <c r="S4" s="31" t="n">
-        <v>0.00775</v>
+        <v>0</v>
       </c>
       <c r="T4" s="31" t="n">
-        <v>0.00775</v>
+        <v>0</v>
       </c>
       <c r="U4" s="31" t="n">
-        <v>0.00775</v>
+        <v>0</v>
       </c>
       <c r="V4" s="31" t="n">
-        <v>0.02325</v>
+        <v>0</v>
       </c>
       <c r="W4" s="31" t="n">
-        <v>0.093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -12073,9 +12177,7 @@
       <c r="N7" s="31" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="O7" s="31"/>
       <c r="P7" s="31" t="n">
         <v>0</v>
       </c>
@@ -12115,7 +12217,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="31" t="n">
-        <v>0.0379</v>
+        <v>0.038</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -12186,7 +12288,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="31" t="n">
-        <v>0.0379</v>
+        <v>0.038</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -12257,7 +12359,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="31" t="n">
-        <v>0.0379</v>
+        <v>0.038</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -12287,31 +12389,31 @@
         <v>0.0189</v>
       </c>
       <c r="O10" s="31" t="n">
-        <v>0.00631666666666667</v>
+        <v>0</v>
       </c>
       <c r="P10" s="31" t="n">
-        <v>0.00631666666666667</v>
+        <v>0.005425</v>
       </c>
       <c r="Q10" s="31" t="n">
-        <v>0.00631666666666667</v>
+        <v>0.005425</v>
       </c>
       <c r="R10" s="31" t="n">
-        <v>0.01895</v>
+        <v>0.016275</v>
       </c>
       <c r="S10" s="31" t="n">
-        <v>0.00631666666666667</v>
+        <v>0.005425</v>
       </c>
       <c r="T10" s="31" t="n">
-        <v>0.00631666666666667</v>
+        <v>0.005425</v>
       </c>
       <c r="U10" s="31" t="n">
-        <v>0.00631666666666667</v>
+        <v>0.005425</v>
       </c>
       <c r="V10" s="31" t="n">
-        <v>0.01895</v>
+        <v>0.016275</v>
       </c>
       <c r="W10" s="31" t="n">
-        <v>0.0758</v>
+        <v>0.0651</v>
       </c>
     </row>
   </sheetData>
@@ -12413,7 +12515,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="32" t="n">
-        <v>0.0337</v>
+        <v>0.0474</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -12484,7 +12586,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="32" t="n">
-        <v>0.0337</v>
+        <v>0.0474</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -12555,7 +12657,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="32" t="n">
-        <v>0.0337</v>
+        <v>0.0474</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -12585,31 +12687,31 @@
         <v>0.0203</v>
       </c>
       <c r="O4" s="32" t="n">
-        <v>0.00561666666666667</v>
+        <v>0.0139</v>
       </c>
       <c r="P4" s="32" t="n">
-        <v>0.00561666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="32" t="n">
-        <v>0.00561666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="32" t="n">
-        <v>0.01685</v>
+        <v>0</v>
       </c>
       <c r="S4" s="32" t="n">
-        <v>0.00561666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="32" t="n">
-        <v>0.00561666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="32" t="n">
-        <v>0.00561666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="32" t="n">
-        <v>0.01685</v>
+        <v>0</v>
       </c>
       <c r="W4" s="32" t="n">
-        <v>0.0674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -12767,9 +12869,7 @@
       <c r="L7" s="32"/>
       <c r="M7" s="32"/>
       <c r="N7" s="32"/>
-      <c r="O7" s="32" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" s="32"/>
       <c r="P7" s="32" t="n">
         <v>1</v>
       </c>
@@ -12809,7 +12909,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="32" t="n">
-        <v>0.0162</v>
+        <v>0.0204</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -12880,7 +12980,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="32" t="n">
-        <v>0.0162</v>
+        <v>0.0204</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -12951,7 +13051,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="32" t="n">
-        <v>0.0162</v>
+        <v>0.0204</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -12981,31 +13081,31 @@
         <v>0.0082</v>
       </c>
       <c r="O10" s="32" t="n">
-        <v>0.0027</v>
+        <v>0.0042</v>
       </c>
       <c r="P10" s="32" t="n">
-        <v>0.0027</v>
+        <v>0.00291666666666667</v>
       </c>
       <c r="Q10" s="32" t="n">
-        <v>0.0027</v>
+        <v>0.00291666666666667</v>
       </c>
       <c r="R10" s="32" t="n">
-        <v>0.0081</v>
+        <v>0.00875</v>
       </c>
       <c r="S10" s="32" t="n">
-        <v>0.0027</v>
+        <v>0.00291666666666667</v>
       </c>
       <c r="T10" s="32" t="n">
-        <v>0.0027</v>
+        <v>0.00291666666666667</v>
       </c>
       <c r="U10" s="32" t="n">
-        <v>0.0027</v>
+        <v>0.00291666666666667</v>
       </c>
       <c r="V10" s="32" t="n">
-        <v>0.0081</v>
+        <v>0.00875</v>
       </c>
       <c r="W10" s="32" t="n">
-        <v>0.0324</v>
+        <v>0.035</v>
       </c>
     </row>
   </sheetData>
@@ -13107,7 +13207,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="33" t="n">
-        <v>0.0538</v>
+        <v>0.054</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -13178,7 +13278,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="33" t="n">
-        <v>0.0538</v>
+        <v>0.054</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -13249,7 +13349,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="33" t="n">
-        <v>0.0538</v>
+        <v>0.054</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -13279,31 +13379,31 @@
         <v>0.0433</v>
       </c>
       <c r="O4" s="33" t="n">
-        <v>0.00896666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="33" t="n">
-        <v>0.00896666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="33" t="n">
-        <v>0.00896666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="33" t="n">
-        <v>0.0269</v>
+        <v>0</v>
       </c>
       <c r="S4" s="33" t="n">
-        <v>0.00896666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="33" t="n">
-        <v>0.00896666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="33" t="n">
-        <v>0.00896666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="33" t="n">
-        <v>0.0269</v>
+        <v>0</v>
       </c>
       <c r="W4" s="33" t="n">
-        <v>0.1076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -13461,9 +13561,7 @@
       <c r="N7" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="O7" s="33"/>
       <c r="P7" s="33" t="n">
         <v>0</v>
       </c>
@@ -13503,7 +13601,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="33" t="n">
-        <v>0.0938</v>
+        <v>0.0928</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -13574,7 +13672,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="33" t="n">
-        <v>0.0938</v>
+        <v>0.0928</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -13645,7 +13743,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="33" t="n">
-        <v>0.0938</v>
+        <v>0.0928</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -13675,31 +13773,31 @@
         <v>0.0569</v>
       </c>
       <c r="O10" s="33" t="n">
-        <v>0.0156333333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="33" t="n">
-        <v>0.0156333333333333</v>
+        <v>0.0132583333333333</v>
       </c>
       <c r="Q10" s="33" t="n">
-        <v>0.0156333333333333</v>
+        <v>0.0132583333333333</v>
       </c>
       <c r="R10" s="33" t="n">
-        <v>0.0469</v>
+        <v>0.039775</v>
       </c>
       <c r="S10" s="33" t="n">
-        <v>0.0156333333333333</v>
+        <v>0.0132583333333333</v>
       </c>
       <c r="T10" s="33" t="n">
-        <v>0.0156333333333333</v>
+        <v>0.0132583333333333</v>
       </c>
       <c r="U10" s="33" t="n">
-        <v>0.0156333333333333</v>
+        <v>0.0132583333333333</v>
       </c>
       <c r="V10" s="33" t="n">
-        <v>0.0469</v>
+        <v>0.039775</v>
       </c>
       <c r="W10" s="33" t="n">
-        <v>0.1876</v>
+        <v>0.1591</v>
       </c>
     </row>
   </sheetData>
@@ -13801,7 +13899,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="34" t="n">
-        <v>0.0602</v>
+        <v>0.08</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -13872,7 +13970,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="34" t="n">
-        <v>0.0602</v>
+        <v>0.08</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -13943,7 +14041,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="34" t="n">
-        <v>0.0602</v>
+        <v>0.08</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -13973,31 +14071,31 @@
         <v>0.0204</v>
       </c>
       <c r="O4" s="34" t="n">
-        <v>0.0100333333333333</v>
+        <v>0.0196</v>
       </c>
       <c r="P4" s="34" t="n">
-        <v>0.0100333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="34" t="n">
-        <v>0.0100333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="34" t="n">
-        <v>0.0301</v>
+        <v>0</v>
       </c>
       <c r="S4" s="34" t="n">
-        <v>0.0100333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="34" t="n">
-        <v>0.0100333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="34" t="n">
-        <v>0.0100333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="34" t="n">
-        <v>0.0301</v>
+        <v>0</v>
       </c>
       <c r="W4" s="34" t="n">
-        <v>0.1204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -14157,9 +14255,7 @@
       <c r="N7" s="34" t="n">
         <v>0.3333</v>
       </c>
-      <c r="O7" s="34" t="n">
-        <v>0.75</v>
-      </c>
+      <c r="O7" s="34"/>
       <c r="P7" s="34" t="n">
         <v>0.75</v>
       </c>
@@ -14199,7 +14295,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.0295</v>
+        <v>0.0597</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -14270,7 +14366,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.0295</v>
+        <v>0.0597</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -14341,7 +14437,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>0.0295</v>
+        <v>0.0597</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -14371,31 +14467,31 @@
         <v>0.0149</v>
       </c>
       <c r="O10" s="34" t="n">
-        <v>0.00491666666666667</v>
+        <v>0.0317</v>
       </c>
       <c r="P10" s="34" t="n">
-        <v>0.00491666666666667</v>
+        <v>0.008525</v>
       </c>
       <c r="Q10" s="34" t="n">
-        <v>0.00491666666666667</v>
+        <v>0.008525</v>
       </c>
       <c r="R10" s="34" t="n">
-        <v>0.01475</v>
+        <v>0.025575</v>
       </c>
       <c r="S10" s="34" t="n">
-        <v>0.00491666666666667</v>
+        <v>0.008525</v>
       </c>
       <c r="T10" s="34" t="n">
-        <v>0.00491666666666667</v>
+        <v>0.008525</v>
       </c>
       <c r="U10" s="34" t="n">
-        <v>0.00491666666666667</v>
+        <v>0.008525</v>
       </c>
       <c r="V10" s="34" t="n">
-        <v>0.01475</v>
+        <v>0.025575</v>
       </c>
       <c r="W10" s="34" t="n">
-        <v>0.059</v>
+        <v>0.1023</v>
       </c>
     </row>
   </sheetData>
@@ -14892,31 +14988,31 @@
         <v>0.037</v>
       </c>
       <c r="O4" s="36" t="n">
-        <v>0.0124833333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="36" t="n">
-        <v>0.0124833333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="36" t="n">
-        <v>0.0124833333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="36" t="n">
-        <v>0.03745</v>
+        <v>0</v>
       </c>
       <c r="S4" s="36" t="n">
-        <v>0.0124833333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="36" t="n">
-        <v>0.0124833333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="36" t="n">
-        <v>0.0124833333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="36" t="n">
-        <v>0.03745</v>
+        <v>0</v>
       </c>
       <c r="W4" s="36" t="n">
-        <v>0.1498</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -15072,9 +15168,7 @@
       <c r="L7" s="36"/>
       <c r="M7" s="36"/>
       <c r="N7" s="36"/>
-      <c r="O7" s="36" t="n">
-        <v>0</v>
-      </c>
+      <c r="O7" s="36"/>
       <c r="P7" s="36" t="n">
         <v>0</v>
       </c>
@@ -15286,31 +15380,31 @@
         <v>0.03</v>
       </c>
       <c r="O10" s="36" t="n">
-        <v>0.0102</v>
+        <v>0</v>
       </c>
       <c r="P10" s="36" t="n">
-        <v>0.0102</v>
+        <v>0.00874166666666667</v>
       </c>
       <c r="Q10" s="36" t="n">
-        <v>0.0102</v>
+        <v>0.00874166666666667</v>
       </c>
       <c r="R10" s="36" t="n">
-        <v>0.0306</v>
+        <v>0.026225</v>
       </c>
       <c r="S10" s="36" t="n">
-        <v>0.0102</v>
+        <v>0.00874166666666667</v>
       </c>
       <c r="T10" s="36" t="n">
-        <v>0.0102</v>
+        <v>0.00874166666666667</v>
       </c>
       <c r="U10" s="36" t="n">
-        <v>0.0102</v>
+        <v>0.00874166666666667</v>
       </c>
       <c r="V10" s="36" t="n">
-        <v>0.0306</v>
+        <v>0.026225</v>
       </c>
       <c r="W10" s="36" t="n">
-        <v>0.1224</v>
+        <v>0.1049</v>
       </c>
     </row>
   </sheetData>
@@ -16462,7 +16556,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="40" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -16492,7 +16586,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="40" t="n">
-        <v>0</v>
+        <v>0.1667</v>
       </c>
       <c r="P2" s="40" t="n">
         <v>0</v>
@@ -16675,65 +16769,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" s="41" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -16931,9 +16966,7 @@
       <c r="N3" s="42" t="n">
         <v>0.5</v>
       </c>
-      <c r="O3" s="42" t="n">
-        <v>0.166666666666667</v>
-      </c>
+      <c r="O3" s="42"/>
       <c r="P3" s="42" t="n">
         <v>0.166666666666667</v>
       </c>
@@ -17513,7 +17546,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0.0711</v>
+        <v>0.1042</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -17584,7 +17617,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>0.0711</v>
+        <v>0.1042</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -17655,22 +17688,22 @@
         <v>26</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.0711</v>
+        <v>0.1042</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>0.0227</v>
+        <v>0.0204</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.0233</v>
+        <v>0.0208</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>0.0244</v>
+        <v>0.0213</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.0703</v>
+        <v>0.0625</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0</v>
@@ -17685,31 +17718,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="5" t="n">
-        <v>0.01185</v>
+        <v>0.0426</v>
       </c>
       <c r="P4" s="5" t="n">
-        <v>0.01185</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="5" t="n">
-        <v>0.01185</v>
+        <v>0</v>
       </c>
       <c r="R4" s="5" t="n">
-        <v>0.03555</v>
+        <v>0</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0.01185</v>
+        <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>0.01185</v>
+        <v>0</v>
       </c>
       <c r="U4" s="5" t="n">
-        <v>0.01185</v>
+        <v>0</v>
       </c>
       <c r="V4" s="5" t="n">
-        <v>0.03555</v>
+        <v>0</v>
       </c>
       <c r="W4" s="5" t="n">
-        <v>0.1422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -17869,9 +17902,7 @@
       <c r="N7" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="O7" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" s="5"/>
       <c r="P7" s="5" t="n">
         <v>1</v>
       </c>
@@ -17911,7 +17942,7 @@
         <v>31</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.107</v>
+        <v>0.1383</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -17982,7 +18013,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.107</v>
+        <v>0.1383</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -18053,61 +18084,61 @@
         <v>31</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.107</v>
+        <v>0.1383</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>0.02</v>
+        <v>0.0207</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.0205</v>
+        <v>0.0213</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>0.0132</v>
+        <v>0.0138</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.0537</v>
+        <v>0.0557</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.027</v>
+        <v>0.0282</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>0.0199</v>
+        <v>0.0208</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>0.0066</v>
+        <v>0.0069</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.0533</v>
+        <v>0.0558</v>
       </c>
       <c r="O10" s="5" t="n">
-        <v>0.0178333333333333</v>
+        <v>0.0265</v>
       </c>
       <c r="P10" s="5" t="n">
-        <v>0.0178333333333333</v>
+        <v>0.0197583333333333</v>
       </c>
       <c r="Q10" s="5" t="n">
-        <v>0.0178333333333333</v>
+        <v>0.0197583333333333</v>
       </c>
       <c r="R10" s="5" t="n">
-        <v>0.0535</v>
+        <v>0.059275</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>0.0178333333333333</v>
+        <v>0.0197583333333333</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>0.0178333333333333</v>
+        <v>0.0197583333333333</v>
       </c>
       <c r="U10" s="5" t="n">
-        <v>0.0178333333333333</v>
+        <v>0.0197583333333333</v>
       </c>
       <c r="V10" s="5" t="n">
-        <v>0.0535</v>
+        <v>0.059275</v>
       </c>
       <c r="W10" s="5" t="n">
-        <v>0.214</v>
+        <v>0.2371</v>
       </c>
     </row>
   </sheetData>
@@ -18209,7 +18240,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0.0165</v>
+        <v>0.0162</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -18280,7 +18311,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0.0165</v>
+        <v>0.0162</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -18351,7 +18382,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0.0165</v>
+        <v>0.0162</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -18363,10 +18394,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0167</v>
+        <v>0.0164</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.0165</v>
+        <v>0.0162</v>
       </c>
       <c r="K4" s="6" t="n">
         <v>0</v>
@@ -18381,31 +18412,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00275</v>
+        <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.00275</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0.00275</v>
+        <v>0</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.00825</v>
+        <v>0</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0.00275</v>
+        <v>0</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0.00275</v>
+        <v>0</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.00275</v>
+        <v>0</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00825</v>
+        <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -19337,31 +19368,31 @@
         <v>0.0121</v>
       </c>
       <c r="O9" s="7" t="n">
-        <v>0.00201666666666667</v>
+        <v>0</v>
       </c>
       <c r="P9" s="7" t="n">
-        <v>0.00201666666666667</v>
+        <v>0.001725</v>
       </c>
       <c r="Q9" s="7" t="n">
-        <v>0.00201666666666667</v>
+        <v>0.001725</v>
       </c>
       <c r="R9" s="7" t="n">
-        <v>0.00605</v>
+        <v>0.005175</v>
       </c>
       <c r="S9" s="7" t="n">
-        <v>0.00201666666666667</v>
+        <v>0.001725</v>
       </c>
       <c r="T9" s="7" t="n">
-        <v>0.00201666666666667</v>
+        <v>0.001725</v>
       </c>
       <c r="U9" s="7" t="n">
-        <v>0.00201666666666667</v>
+        <v>0.001725</v>
       </c>
       <c r="V9" s="7" t="n">
-        <v>0.00605</v>
+        <v>0.005175</v>
       </c>
       <c r="W9" s="7" t="n">
-        <v>0.0242</v>
+        <v>0.0207</v>
       </c>
     </row>
   </sheetData>
